--- a/Jogos_do_Dia/2024-03-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
   <si>
     <t>League</t>
   </si>
@@ -205,9 +205,6 @@
     <t>IMT Novi Beograd</t>
   </si>
   <si>
-    <t>Masr</t>
-  </si>
-  <si>
     <t>National Bank of Egypt</t>
   </si>
   <si>
@@ -244,36 +241,36 @@
     <t>Tranmere Rovers</t>
   </si>
   <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
     <t>Derby County</t>
   </si>
   <si>
-    <t>Wrexham</t>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
   </si>
   <si>
     <t>Carlisle United</t>
   </si>
   <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
     <t>Walsall</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>Vojvodina</t>
   </si>
   <si>
-    <t>Al Masry</t>
-  </si>
-  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -337,34 +331,34 @@
     <t>Mansfield Town</t>
   </si>
   <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
     <t>Reading</t>
   </si>
   <si>
-    <t>Harrogate Town</t>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
   </si>
   <si>
     <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
   </si>
   <si>
     <t>Barrow</t>
@@ -732,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +880,7 @@
         <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1017,7 +1011,7 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1148,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1279,7 +1273,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1410,7 +1404,7 @@
         <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6">
         <v>2.02</v>
@@ -1541,7 +1535,7 @@
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1666,124 +1660,124 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8">
-        <v>3.69</v>
+        <v>6.2</v>
       </c>
       <c r="H8">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
-        <v>3.24</v>
+        <v>1.85</v>
       </c>
       <c r="J8">
-        <v>2.9</v>
+        <v>6.05</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4.01</v>
       </c>
       <c r="L8">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="M8">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="N8">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O8">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="S8">
-        <v>2.26</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
         <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8">
-        <v>1.44</v>
+        <v>2.5</v>
       </c>
       <c r="X8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="Y8">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="Z8">
-        <v>1.5</v>
+        <v>0.57</v>
       </c>
       <c r="AA8">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AB8">
-        <v>1.91</v>
+        <v>1.42</v>
       </c>
       <c r="AC8">
-        <v>1.1</v>
+        <v>1.77</v>
       </c>
       <c r="AD8">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AE8">
-        <v>1.98</v>
+        <v>3.12</v>
       </c>
       <c r="AF8">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8">
+        <v>1.45</v>
+      </c>
+      <c r="AH8">
+        <v>1.2</v>
+      </c>
+      <c r="AI8">
+        <v>3.86</v>
+      </c>
+      <c r="AJ8">
+        <v>1.39</v>
+      </c>
+      <c r="AK8">
+        <v>2.67</v>
+      </c>
+      <c r="AL8">
+        <v>1.75</v>
+      </c>
+      <c r="AM8">
         <v>2.04</v>
       </c>
-      <c r="AH8">
-        <v>1.34</v>
-      </c>
-      <c r="AI8">
-        <v>2.88</v>
-      </c>
-      <c r="AJ8">
-        <v>1.68</v>
-      </c>
-      <c r="AK8">
-        <v>2.14</v>
-      </c>
-      <c r="AL8">
-        <v>2.1</v>
-      </c>
-      <c r="AM8">
-        <v>1.71</v>
-      </c>
       <c r="AN8">
-        <v>2.75</v>
+        <v>2.18</v>
       </c>
       <c r="AO8">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="AP8">
-        <v>3.86</v>
+        <v>2.84</v>
       </c>
       <c r="AQ8">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1803,25 +1797,25 @@
         <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="H9">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="I9">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="J9">
-        <v>5.73</v>
+        <v>3.77</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3.23</v>
       </c>
       <c r="L9">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>1.4</v>
@@ -1833,219 +1827,219 @@
         <v>1.05</v>
       </c>
       <c r="P9">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q9">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="R9">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="S9">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="T9">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W9">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="X9">
         <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="Z9">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AB9">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AC9">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AD9">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="AE9">
-        <v>3.12</v>
+        <v>2.85</v>
       </c>
       <c r="AF9">
         <v>9.199999999999999</v>
       </c>
       <c r="AG9">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AH9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>3.86</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AK9">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="AL9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AM9">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="AN9">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="AO9">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AP9">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2">
         <v>45363</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="H10">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="J10">
-        <v>4.15</v>
+        <v>2.03</v>
       </c>
       <c r="K10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L10">
-        <v>1.79</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N10">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>1.05</v>
       </c>
       <c r="P10">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q10">
+        <v>1.28</v>
+      </c>
+      <c r="R10">
+        <v>3.65</v>
+      </c>
+      <c r="S10">
+        <v>1.83</v>
+      </c>
+      <c r="T10">
+        <v>1.97</v>
+      </c>
+      <c r="U10">
+        <v>1.67</v>
+      </c>
+      <c r="V10">
+        <v>2.1</v>
+      </c>
+      <c r="W10">
         <v>1.3</v>
-      </c>
-      <c r="R10">
-        <v>3.35</v>
-      </c>
-      <c r="S10">
-        <v>1.94</v>
-      </c>
-      <c r="T10">
-        <v>1.75</v>
-      </c>
-      <c r="U10">
-        <v>1.73</v>
-      </c>
-      <c r="V10">
-        <v>1.91</v>
-      </c>
-      <c r="W10">
-        <v>1.85</v>
       </c>
       <c r="X10">
         <v>1.25</v>
       </c>
       <c r="Y10">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AA10">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AB10">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AC10">
+        <v>1.14</v>
+      </c>
+      <c r="AD10">
+        <v>2.43</v>
+      </c>
+      <c r="AE10">
         <v>1.68</v>
       </c>
-      <c r="AD10">
-        <v>3.04</v>
-      </c>
-      <c r="AE10">
-        <v>2.85</v>
-      </c>
       <c r="AF10">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG10">
-        <v>1.52</v>
+        <v>2.54</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ10">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AK10">
-        <v>2.84</v>
+        <v>3.28</v>
       </c>
       <c r="AL10">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="AM10">
-        <v>2.15</v>
+        <v>2.39</v>
       </c>
       <c r="AN10">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="AO10">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AP10">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2065,31 +2059,31 @@
         <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I11">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>2.02</v>
+        <v>2.65</v>
       </c>
       <c r="K11">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>3.65</v>
+        <v>2.19</v>
       </c>
       <c r="M11">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
         <v>1.05</v>
@@ -2098,85 +2092,85 @@
         <v>9.5</v>
       </c>
       <c r="Q11">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="S11">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U11">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V11">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W11">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="X11">
         <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="Z11">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="AA11">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AB11">
+        <v>1.36</v>
+      </c>
+      <c r="AC11">
+        <v>1.37</v>
+      </c>
+      <c r="AD11">
+        <v>2.73</v>
+      </c>
+      <c r="AE11">
+        <v>1.99</v>
+      </c>
+      <c r="AF11">
+        <v>9.1</v>
+      </c>
+      <c r="AG11">
+        <v>2.03</v>
+      </c>
+      <c r="AH11">
+        <v>1.14</v>
+      </c>
+      <c r="AI11">
+        <v>4.65</v>
+      </c>
+      <c r="AJ11">
         <v>1.29</v>
       </c>
-      <c r="AC11">
-        <v>1.14</v>
-      </c>
-      <c r="AD11">
-        <v>2.43</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2196,43 +2190,43 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H12">
         <v>2.25</v>
       </c>
       <c r="I12">
+        <v>4.5</v>
+      </c>
+      <c r="J12">
+        <v>1.68</v>
+      </c>
+      <c r="K12">
+        <v>3.6</v>
+      </c>
+      <c r="L12">
+        <v>4.25</v>
+      </c>
+      <c r="M12">
+        <v>1.36</v>
+      </c>
+      <c r="N12">
         <v>3</v>
-      </c>
-      <c r="J12">
-        <v>2.9</v>
-      </c>
-      <c r="K12">
-        <v>3.65</v>
-      </c>
-      <c r="L12">
-        <v>2.32</v>
-      </c>
-      <c r="M12">
-        <v>1.33</v>
-      </c>
-      <c r="N12">
-        <v>3.25</v>
       </c>
       <c r="O12">
         <v>1.05</v>
       </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R12">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="S12">
         <v>1.68</v>
@@ -2241,43 +2235,43 @@
         <v>2.05</v>
       </c>
       <c r="U12">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V12">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="X12">
         <v>1.25</v>
       </c>
       <c r="Y12">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="Z12">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AA12">
-        <v>1.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB12">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AC12">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AD12">
-        <v>2.73</v>
+        <v>2.56</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2286,28 +2280,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2327,123 +2321,123 @@
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13">
+        <v>3.1</v>
+      </c>
+      <c r="H13">
         <v>2.4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
+        <v>2.88</v>
+      </c>
+      <c r="J13">
+        <v>2.45</v>
+      </c>
+      <c r="K13">
+        <v>3.7</v>
+      </c>
+      <c r="L13">
+        <v>2.26</v>
+      </c>
+      <c r="M13">
+        <v>1.29</v>
+      </c>
+      <c r="N13">
+        <v>3.5</v>
+      </c>
+      <c r="O13">
+        <v>1.04</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>1.18</v>
+      </c>
+      <c r="R13">
+        <v>4.75</v>
+      </c>
+      <c r="S13">
+        <v>1.58</v>
+      </c>
+      <c r="T13">
         <v>2.25</v>
       </c>
-      <c r="I13">
-        <v>4.5</v>
-      </c>
-      <c r="J13">
-        <v>1.74</v>
-      </c>
-      <c r="K13">
-        <v>3.85</v>
-      </c>
-      <c r="L13">
-        <v>4.6</v>
-      </c>
-      <c r="M13">
+      <c r="U13">
+        <v>1.44</v>
+      </c>
+      <c r="V13">
+        <v>2.63</v>
+      </c>
+      <c r="W13">
+        <v>1.55</v>
+      </c>
+      <c r="X13">
+        <v>1.22</v>
+      </c>
+      <c r="Y13">
+        <v>1.45</v>
+      </c>
+      <c r="Z13">
+        <v>1.65</v>
+      </c>
+      <c r="AA13">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB13">
+        <v>1.46</v>
+      </c>
+      <c r="AC13">
         <v>1.36</v>
       </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>1.05</v>
-      </c>
-      <c r="P13">
-        <v>10.25</v>
-      </c>
-      <c r="Q13">
-        <v>1.22</v>
-      </c>
-      <c r="R13">
-        <v>3.65</v>
-      </c>
-      <c r="S13">
-        <v>1.68</v>
-      </c>
-      <c r="T13">
-        <v>2.05</v>
-      </c>
-      <c r="U13">
-        <v>1.73</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-      <c r="W13">
-        <v>1.22</v>
-      </c>
-      <c r="X13">
-        <v>1.25</v>
-      </c>
-      <c r="Y13">
-        <v>1.94</v>
-      </c>
-      <c r="Z13">
-        <v>1.89</v>
-      </c>
-      <c r="AA13">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB13">
-        <v>1.29</v>
-      </c>
-      <c r="AC13">
-        <v>1.27</v>
-      </c>
       <c r="AD13">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>45363</v>
@@ -2458,88 +2452,88 @@
         <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H14">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="J14">
-        <v>2.65</v>
+        <v>1.9</v>
       </c>
       <c r="K14">
-        <v>3.65</v>
+        <v>3.17</v>
       </c>
       <c r="L14">
-        <v>2.55</v>
+        <v>3.58</v>
       </c>
       <c r="M14">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O14">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Q14">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="R14">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="S14">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="U14">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="X14">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y14">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="Z14">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AA14">
-        <v>0.9399999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="AB14">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AC14">
-        <v>1.36</v>
+        <v>0.95</v>
       </c>
       <c r="AD14">
-        <v>2.82</v>
+        <v>2.46</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2548,33 +2542,33 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>45363</v>
@@ -2589,25 +2583,25 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
         <v>2.2</v>
       </c>
       <c r="I15">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="K15">
-        <v>3.55</v>
+        <v>3.79</v>
       </c>
       <c r="L15">
-        <v>4.4</v>
+        <v>5.18</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2616,91 +2610,91 @@
         <v>2.75</v>
       </c>
       <c r="O15">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="Q15">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R15">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="S15">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="T15">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W15">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="X15">
         <v>1.25</v>
       </c>
       <c r="Y15">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="Z15">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AA15">
-        <v>1.11</v>
+        <v>0.82</v>
       </c>
       <c r="AB15">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AD15">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2720,118 +2714,118 @@
         <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I16">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>1.59</v>
+        <v>2.17</v>
       </c>
       <c r="K16">
+        <v>3.15</v>
+      </c>
+      <c r="L16">
+        <v>2.95</v>
+      </c>
+      <c r="M16">
+        <v>1.44</v>
+      </c>
+      <c r="N16">
+        <v>2.63</v>
+      </c>
+      <c r="O16">
+        <v>1.04</v>
+      </c>
+      <c r="P16">
+        <v>7.6</v>
+      </c>
+      <c r="Q16">
+        <v>1.36</v>
+      </c>
+      <c r="R16">
+        <v>2.79</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1.72</v>
+      </c>
+      <c r="U16">
+        <v>1.91</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>1.31</v>
+      </c>
+      <c r="X16">
+        <v>1.31</v>
+      </c>
+      <c r="Y16">
+        <v>1.64</v>
+      </c>
+      <c r="Z16">
+        <v>1.61</v>
+      </c>
+      <c r="AA16">
+        <v>1.39</v>
+      </c>
+      <c r="AB16">
+        <v>1.6</v>
+      </c>
+      <c r="AC16">
+        <v>1.24</v>
+      </c>
+      <c r="AD16">
+        <v>2.84</v>
+      </c>
+      <c r="AE16">
+        <v>1.76</v>
+      </c>
+      <c r="AF16">
+        <v>9</v>
+      </c>
+      <c r="AG16">
+        <v>2.4</v>
+      </c>
+      <c r="AH16">
+        <v>1.18</v>
+      </c>
+      <c r="AI16">
         <v>4.1</v>
       </c>
-      <c r="L16">
-        <v>5.6</v>
-      </c>
-      <c r="M16">
-        <v>1.4</v>
-      </c>
-      <c r="N16">
-        <v>2.75</v>
-      </c>
-      <c r="O16">
-        <v>1.02</v>
-      </c>
-      <c r="P16">
-        <v>9.1</v>
-      </c>
-      <c r="Q16">
-        <v>1.27</v>
-      </c>
-      <c r="R16">
-        <v>3.28</v>
-      </c>
-      <c r="S16">
-        <v>1.72</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>1.83</v>
-      </c>
-      <c r="V16">
-        <v>1.83</v>
-      </c>
-      <c r="W16">
-        <v>1.16</v>
-      </c>
-      <c r="X16">
-        <v>1.25</v>
-      </c>
-      <c r="Y16">
-        <v>2.12</v>
-      </c>
-      <c r="Z16">
-        <v>1.53</v>
-      </c>
-      <c r="AA16">
-        <v>0.82</v>
-      </c>
-      <c r="AB16">
-        <v>1.43</v>
-      </c>
-      <c r="AC16">
-        <v>1.19</v>
-      </c>
-      <c r="AD16">
-        <v>2.62</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2851,118 +2845,118 @@
         <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H17">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J17">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="K17">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="M17">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="N17">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
         <v>1.04</v>
       </c>
       <c r="P17">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Q17">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="R17">
-        <v>2.79</v>
+        <v>4.5</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="T17">
+        <v>2.05</v>
+      </c>
+      <c r="U17">
+        <v>1.5</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="W17">
+        <v>1.28</v>
+      </c>
+      <c r="X17">
+        <v>1.24</v>
+      </c>
+      <c r="Y17">
+        <v>1.83</v>
+      </c>
+      <c r="Z17">
         <v>1.72</v>
       </c>
-      <c r="U17">
-        <v>1.91</v>
-      </c>
-      <c r="V17">
-        <v>1.8</v>
-      </c>
-      <c r="W17">
-        <v>1.31</v>
-      </c>
-      <c r="X17">
-        <v>1.31</v>
-      </c>
-      <c r="Y17">
-        <v>1.64</v>
-      </c>
-      <c r="Z17">
-        <v>1.61</v>
-      </c>
       <c r="AA17">
-        <v>1.39</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB17">
+        <v>1.48</v>
+      </c>
+      <c r="AC17">
+        <v>1.25</v>
+      </c>
+      <c r="AD17">
+        <v>2.73</v>
+      </c>
+      <c r="AE17">
         <v>1.6</v>
       </c>
-      <c r="AC17">
-        <v>1.24</v>
-      </c>
-      <c r="AD17">
-        <v>2.84</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
       <c r="AF17">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2982,88 +2976,88 @@
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="H18">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J18">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="K18">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>4.3</v>
+        <v>2.79</v>
       </c>
       <c r="M18">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q18">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="R18">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="S18">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="T18">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="U18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="V18">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="X18">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Y18">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="Z18">
-        <v>1.72</v>
+        <v>1.06</v>
       </c>
       <c r="AA18">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AB18">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AC18">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AD18">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -3072,28 +3066,28 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3113,49 +3107,49 @@
         <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="H19">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I19">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="J19">
-        <v>2.23</v>
+        <v>3.4</v>
       </c>
       <c r="K19">
+        <v>3.45</v>
+      </c>
+      <c r="L19">
+        <v>1.86</v>
+      </c>
+      <c r="M19">
+        <v>1.33</v>
+      </c>
+      <c r="N19">
+        <v>3.25</v>
+      </c>
+      <c r="O19">
+        <v>1.01</v>
+      </c>
+      <c r="P19">
+        <v>10.25</v>
+      </c>
+      <c r="Q19">
+        <v>1.22</v>
+      </c>
+      <c r="R19">
         <v>3.65</v>
       </c>
-      <c r="L19">
-        <v>3.05</v>
-      </c>
-      <c r="M19">
-        <v>1.36</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>1.05</v>
-      </c>
-      <c r="P19">
-        <v>9.5</v>
-      </c>
-      <c r="Q19">
-        <v>1.25</v>
-      </c>
-      <c r="R19">
-        <v>3.85</v>
-      </c>
       <c r="S19">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T19">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="U19">
         <v>1.67</v>
@@ -3164,37 +3158,37 @@
         <v>2.1</v>
       </c>
       <c r="W19">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="X19">
         <v>1.25</v>
       </c>
       <c r="Y19">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="Z19">
-        <v>1.06</v>
+        <v>1.78</v>
       </c>
       <c r="AA19">
-        <v>0.78</v>
+        <v>1.83</v>
       </c>
       <c r="AB19">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AC19">
-        <v>1.18</v>
+        <v>1.59</v>
       </c>
       <c r="AD19">
-        <v>2.65</v>
+        <v>3.04</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -3203,33 +3197,33 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>45363</v>
@@ -3244,123 +3238,123 @@
         <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G20">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I20">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="J20">
-        <v>3.35</v>
+        <v>2.27</v>
       </c>
       <c r="K20">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="L20">
-        <v>2.12</v>
+        <v>2.75</v>
       </c>
       <c r="M20">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N20">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P20">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q20">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="R20">
         <v>3.65</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="T20">
         <v>1.9</v>
       </c>
       <c r="U20">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V20">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W20">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="X20">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y20">
+        <v>1.58</v>
+      </c>
+      <c r="Z20">
+        <v>0.83</v>
+      </c>
+      <c r="AA20">
+        <v>1.28</v>
+      </c>
+      <c r="AB20">
+        <v>1.33</v>
+      </c>
+      <c r="AC20">
+        <v>1.33</v>
+      </c>
+      <c r="AD20">
+        <v>2.66</v>
+      </c>
+      <c r="AE20">
+        <v>1.88</v>
+      </c>
+      <c r="AF20">
+        <v>9.5</v>
+      </c>
+      <c r="AG20">
+        <v>2.19</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1.23</v>
       </c>
-      <c r="Z20">
-        <v>1.78</v>
-      </c>
-      <c r="AA20">
-        <v>1.83</v>
-      </c>
-      <c r="AB20">
-        <v>1.45</v>
-      </c>
-      <c r="AC20">
-        <v>1.59</v>
-      </c>
-      <c r="AD20">
-        <v>3.04</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2">
         <v>45363</v>
@@ -3375,88 +3369,88 @@
         <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="H21">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="I21">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J21">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>4.65</v>
       </c>
       <c r="L21">
-        <v>5.6</v>
+        <v>6.93</v>
       </c>
       <c r="M21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="N21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O21">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P21">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q21">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="R21">
-        <v>3.85</v>
+        <v>5.25</v>
       </c>
       <c r="S21">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="T21">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="U21">
         <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W21">
+        <v>1.09</v>
+      </c>
+      <c r="X21">
+        <v>1.12</v>
+      </c>
+      <c r="Y21">
+        <v>2.95</v>
+      </c>
+      <c r="Z21">
+        <v>2.41</v>
+      </c>
+      <c r="AA21">
+        <v>1.61</v>
+      </c>
+      <c r="AB21">
+        <v>1.86</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>2.87</v>
+      </c>
+      <c r="AE21">
         <v>1.19</v>
       </c>
-      <c r="X21">
-        <v>1.25</v>
-      </c>
-      <c r="Y21">
-        <v>2.22</v>
-      </c>
-      <c r="Z21">
-        <v>1.89</v>
-      </c>
-      <c r="AA21">
-        <v>0.78</v>
-      </c>
-      <c r="AB21">
-        <v>1.46</v>
-      </c>
-      <c r="AC21">
-        <v>1.22</v>
-      </c>
-      <c r="AD21">
-        <v>2.68</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
       <c r="AF21">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3465,33 +3459,33 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>45363</v>
@@ -3506,123 +3500,123 @@
         <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I22">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="J22">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="K22">
-        <v>5.2</v>
+        <v>3.53</v>
       </c>
       <c r="L22">
-        <v>7.8</v>
+        <v>4.44</v>
       </c>
       <c r="M22">
+        <v>1.33</v>
+      </c>
+      <c r="N22">
+        <v>3.25</v>
+      </c>
+      <c r="O22">
+        <v>1.05</v>
+      </c>
+      <c r="P22">
+        <v>9.5</v>
+      </c>
+      <c r="Q22">
         <v>1.25</v>
       </c>
-      <c r="N22">
-        <v>3.75</v>
-      </c>
-      <c r="O22">
-        <v>1.03</v>
-      </c>
-      <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22">
-        <v>1.15</v>
-      </c>
       <c r="R22">
-        <v>5.25</v>
+        <v>3.85</v>
       </c>
       <c r="S22">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="T22">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="U22">
         <v>1.8</v>
       </c>
       <c r="V22">
+        <v>1.95</v>
+      </c>
+      <c r="W22">
+        <v>1.19</v>
+      </c>
+      <c r="X22">
+        <v>1.25</v>
+      </c>
+      <c r="Y22">
+        <v>2.22</v>
+      </c>
+      <c r="Z22">
+        <v>1.89</v>
+      </c>
+      <c r="AA22">
+        <v>0.78</v>
+      </c>
+      <c r="AB22">
+        <v>1.46</v>
+      </c>
+      <c r="AC22">
+        <v>1.22</v>
+      </c>
+      <c r="AD22">
+        <v>2.68</v>
+      </c>
+      <c r="AE22">
+        <v>1.42</v>
+      </c>
+      <c r="AF22">
+        <v>10.5</v>
+      </c>
+      <c r="AG22">
+        <v>3.5</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>1.28</v>
+      </c>
+      <c r="AK22">
+        <v>3.18</v>
+      </c>
+      <c r="AL22">
+        <v>1.53</v>
+      </c>
+      <c r="AM22">
+        <v>2.34</v>
+      </c>
+      <c r="AN22">
         <v>1.91</v>
       </c>
-      <c r="W22">
-        <v>1.09</v>
-      </c>
-      <c r="X22">
-        <v>1.12</v>
-      </c>
-      <c r="Y22">
-        <v>2.95</v>
-      </c>
-      <c r="Z22">
-        <v>2.41</v>
-      </c>
-      <c r="AA22">
-        <v>1.61</v>
-      </c>
-      <c r="AB22">
-        <v>1.86</v>
-      </c>
-      <c r="AC22">
-        <v>1.01</v>
-      </c>
-      <c r="AD22">
-        <v>2.87</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
         <v>45363</v>
@@ -3631,129 +3625,129 @@
         <v>55</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G23">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="H23">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I23">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="K23">
-        <v>3.55</v>
+        <v>3.28</v>
       </c>
       <c r="L23">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
       <c r="M23">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P23">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
       <c r="Q23">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="R23">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="S23">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U23">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="V23">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="W23">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="X23">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y23">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Z23">
-        <v>0.78</v>
+        <v>1.59</v>
       </c>
       <c r="AA23">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="AB23">
         <v>1.27</v>
       </c>
       <c r="AC23">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AD23">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>45363</v>
@@ -3762,124 +3756,124 @@
         <v>55</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H24">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I24">
-        <v>2.85</v>
+        <v>5.5</v>
       </c>
       <c r="J24">
-        <v>2.65</v>
+        <v>1.53</v>
       </c>
       <c r="K24">
-        <v>3.7</v>
+        <v>3.57</v>
       </c>
       <c r="L24">
-        <v>2.49</v>
+        <v>5.2</v>
       </c>
       <c r="M24">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="N24">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>1.02</v>
       </c>
       <c r="P24">
-        <v>20.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q24">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="R24">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="S24">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Y24">
+        <v>2.26</v>
+      </c>
+      <c r="Z24">
+        <v>1.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.82</v>
+      </c>
+      <c r="AB24">
+        <v>1.39</v>
+      </c>
+      <c r="AC24">
+        <v>1.11</v>
+      </c>
+      <c r="AD24">
+        <v>2.5</v>
+      </c>
+      <c r="AE24">
         <v>1.43</v>
       </c>
-      <c r="Z24">
-        <v>1.59</v>
-      </c>
-      <c r="AA24">
-        <v>1.44</v>
-      </c>
-      <c r="AB24">
-        <v>1.27</v>
-      </c>
-      <c r="AC24">
+      <c r="AF24">
+        <v>10</v>
+      </c>
+      <c r="AG24">
+        <v>3.5</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>1.36</v>
+      </c>
+      <c r="AK24">
+        <v>2.78</v>
+      </c>
+      <c r="AL24">
+        <v>1.66</v>
+      </c>
+      <c r="AM24">
+        <v>2.09</v>
+      </c>
+      <c r="AN24">
+        <v>2.11</v>
+      </c>
+      <c r="AO24">
+        <v>1.68</v>
+      </c>
+      <c r="AP24">
+        <v>2.76</v>
+      </c>
+      <c r="AQ24">
         <v>1.39</v>
-      </c>
-      <c r="AD24">
-        <v>2.66</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3899,118 +3893,118 @@
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H25">
+        <v>2.05</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1.65</v>
+      </c>
+      <c r="K25">
+        <v>3.16</v>
+      </c>
+      <c r="L25">
+        <v>4.43</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+      <c r="N25">
+        <v>2.5</v>
+      </c>
+      <c r="O25">
+        <v>1.07</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>1.42</v>
+      </c>
+      <c r="R25">
+        <v>2.85</v>
+      </c>
+      <c r="S25">
         <v>2.2</v>
       </c>
-      <c r="I25">
-        <v>3.4</v>
-      </c>
-      <c r="J25">
-        <v>2.32</v>
-      </c>
-      <c r="K25">
-        <v>3.65</v>
-      </c>
-      <c r="L25">
-        <v>2.9</v>
-      </c>
-      <c r="M25">
-        <v>1.36</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>1.05</v>
-      </c>
-      <c r="P25">
-        <v>9.5</v>
-      </c>
-      <c r="Q25">
+      <c r="T25">
+        <v>1.6</v>
+      </c>
+      <c r="U25">
+        <v>2.05</v>
+      </c>
+      <c r="V25">
+        <v>1.7</v>
+      </c>
+      <c r="W25">
+        <v>1.2</v>
+      </c>
+      <c r="X25">
+        <v>1.25</v>
+      </c>
+      <c r="Y25">
+        <v>1.95</v>
+      </c>
+      <c r="Z25">
+        <v>1.56</v>
+      </c>
+      <c r="AA25">
+        <v>0.76</v>
+      </c>
+      <c r="AB25">
+        <v>1.3</v>
+      </c>
+      <c r="AC25">
+        <v>1.07</v>
+      </c>
+      <c r="AD25">
+        <v>2.37</v>
+      </c>
+      <c r="AE25">
+        <v>1.5</v>
+      </c>
+      <c r="AF25">
+        <v>9.4</v>
+      </c>
+      <c r="AG25">
+        <v>3.2</v>
+      </c>
+      <c r="AH25">
+        <v>1.25</v>
+      </c>
+      <c r="AI25">
+        <v>3.42</v>
+      </c>
+      <c r="AJ25">
+        <v>1.49</v>
+      </c>
+      <c r="AK25">
+        <v>2.44</v>
+      </c>
+      <c r="AL25">
+        <v>1.86</v>
+      </c>
+      <c r="AM25">
+        <v>1.88</v>
+      </c>
+      <c r="AN25">
+        <v>2.39</v>
+      </c>
+      <c r="AO25">
+        <v>1.51</v>
+      </c>
+      <c r="AP25">
+        <v>3.2</v>
+      </c>
+      <c r="AQ25">
         <v>1.28</v>
-      </c>
-      <c r="R25">
-        <v>3.65</v>
-      </c>
-      <c r="S25">
-        <v>1.86</v>
-      </c>
-      <c r="T25">
-        <v>1.96</v>
-      </c>
-      <c r="U25">
-        <v>1.7</v>
-      </c>
-      <c r="V25">
-        <v>2.05</v>
-      </c>
-      <c r="W25">
-        <v>1.42</v>
-      </c>
-      <c r="X25">
-        <v>1.3</v>
-      </c>
-      <c r="Y25">
-        <v>1.58</v>
-      </c>
-      <c r="Z25">
-        <v>0.83</v>
-      </c>
-      <c r="AA25">
-        <v>1.28</v>
-      </c>
-      <c r="AB25">
-        <v>1.33</v>
-      </c>
-      <c r="AC25">
-        <v>1.33</v>
-      </c>
-      <c r="AD25">
-        <v>2.66</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4030,25 +4024,25 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G26">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="H26">
         <v>2.25</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J26">
-        <v>1.63</v>
+        <v>3.75</v>
       </c>
       <c r="K26">
-        <v>4.2</v>
+        <v>3.28</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>1.82</v>
       </c>
       <c r="M26">
         <v>1.36</v>
@@ -4057,91 +4051,91 @@
         <v>3</v>
       </c>
       <c r="O26">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P26">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R26">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T26">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W26">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="X26">
+        <v>1.27</v>
+      </c>
+      <c r="Y26">
+        <v>1.24</v>
+      </c>
+      <c r="Z26">
+        <v>1.61</v>
+      </c>
+      <c r="AA26">
+        <v>1.06</v>
+      </c>
+      <c r="AB26">
+        <v>1.31</v>
+      </c>
+      <c r="AC26">
         <v>1.26</v>
       </c>
-      <c r="Y26">
-        <v>2.26</v>
-      </c>
-      <c r="Z26">
-        <v>1.5</v>
-      </c>
-      <c r="AA26">
-        <v>0.82</v>
-      </c>
-      <c r="AB26">
-        <v>1.39</v>
-      </c>
-      <c r="AC26">
-        <v>1.11</v>
-      </c>
       <c r="AD26">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="27" spans="1:43">
@@ -4161,49 +4155,49 @@
         <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="H27">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="K27">
-        <v>3.55</v>
+        <v>4.03</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N27">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P27">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q27">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="R27">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="S27">
-        <v>2.2</v>
+        <v>1.92</v>
       </c>
       <c r="T27">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="U27">
         <v>2.05</v>
@@ -4212,67 +4206,67 @@
         <v>1.7</v>
       </c>
       <c r="W27">
+        <v>1.08</v>
+      </c>
+      <c r="X27">
+        <v>1.21</v>
+      </c>
+      <c r="Y27">
+        <v>2.82</v>
+      </c>
+      <c r="Z27">
+        <v>2.22</v>
+      </c>
+      <c r="AA27">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB27">
+        <v>1.55</v>
+      </c>
+      <c r="AC27">
+        <v>0.95</v>
+      </c>
+      <c r="AD27">
+        <v>2.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.22</v>
+      </c>
+      <c r="AF27">
+        <v>11.7</v>
+      </c>
+      <c r="AG27">
+        <v>5.53</v>
+      </c>
+      <c r="AH27">
         <v>1.2</v>
       </c>
-      <c r="X27">
-        <v>1.25</v>
-      </c>
-      <c r="Y27">
-        <v>1.95</v>
-      </c>
-      <c r="Z27">
-        <v>1.56</v>
-      </c>
-      <c r="AA27">
-        <v>0.76</v>
-      </c>
-      <c r="AB27">
-        <v>1.3</v>
-      </c>
-      <c r="AC27">
-        <v>1.07</v>
-      </c>
-      <c r="AD27">
-        <v>2.37</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="28" spans="1:43">
@@ -4292,88 +4286,88 @@
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="H28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>2.31</v>
+      </c>
+      <c r="K28">
+        <v>2.97</v>
+      </c>
+      <c r="L28">
+        <v>2.83</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
         <v>2.5</v>
       </c>
-      <c r="J28">
-        <v>3.3</v>
-      </c>
-      <c r="K28">
-        <v>3.65</v>
-      </c>
-      <c r="L28">
-        <v>2.12</v>
-      </c>
-      <c r="M28">
-        <v>1.36</v>
-      </c>
-      <c r="N28">
-        <v>3</v>
-      </c>
       <c r="O28">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="P28">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="R28">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="S28">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="T28">
-        <v>2.01</v>
+        <v>1.55</v>
       </c>
       <c r="U28">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W28">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X28">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Y28">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Z28">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="AA28">
         <v>1.06</v>
       </c>
       <c r="AB28">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AC28">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AD28">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -4382,28 +4376,28 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4423,25 +4417,25 @@
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="H29">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="J29">
-        <v>1.41</v>
+        <v>3.92</v>
       </c>
       <c r="K29">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L29">
-        <v>7.8</v>
+        <v>1.73</v>
       </c>
       <c r="M29">
         <v>1.36</v>
@@ -4459,87 +4453,87 @@
         <v>1.25</v>
       </c>
       <c r="R29">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="S29">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="T29">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="V29">
+        <v>2.1</v>
+      </c>
+      <c r="W29">
+        <v>1.85</v>
+      </c>
+      <c r="X29">
+        <v>1.25</v>
+      </c>
+      <c r="Y29">
+        <v>1.25</v>
+      </c>
+      <c r="Z29">
+        <v>0.78</v>
+      </c>
+      <c r="AA29">
+        <v>2.12</v>
+      </c>
+      <c r="AB29">
+        <v>1.27</v>
+      </c>
+      <c r="AC29">
+        <v>1.37</v>
+      </c>
+      <c r="AD29">
+        <v>2.64</v>
+      </c>
+      <c r="AE29">
+        <v>2.57</v>
+      </c>
+      <c r="AF29">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG29">
         <v>1.7</v>
       </c>
-      <c r="W29">
-        <v>1.08</v>
-      </c>
-      <c r="X29">
-        <v>1.21</v>
-      </c>
-      <c r="Y29">
-        <v>2.82</v>
-      </c>
-      <c r="Z29">
-        <v>2.22</v>
-      </c>
-      <c r="AA29">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB29">
-        <v>1.55</v>
-      </c>
-      <c r="AC29">
-        <v>0.95</v>
-      </c>
-      <c r="AD29">
-        <v>2.5</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2">
         <v>45363</v>
@@ -4554,129 +4548,129 @@
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J30">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
+        <v>2.75</v>
+      </c>
+      <c r="O30">
+        <v>1.06</v>
+      </c>
+      <c r="P30">
+        <v>8.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.33</v>
+      </c>
+      <c r="R30">
+        <v>3.2</v>
+      </c>
+      <c r="S30">
+        <v>1.79</v>
+      </c>
+      <c r="T30">
+        <v>1.88</v>
+      </c>
+      <c r="U30">
+        <v>1.8</v>
+      </c>
+      <c r="V30">
+        <v>1.91</v>
+      </c>
+      <c r="W30">
+        <v>1.38</v>
+      </c>
+      <c r="X30">
+        <v>1.28</v>
+      </c>
+      <c r="Y30">
+        <v>1.57</v>
+      </c>
+      <c r="Z30">
+        <v>1.94</v>
+      </c>
+      <c r="AA30">
+        <v>1.44</v>
+      </c>
+      <c r="AB30">
+        <v>1.49</v>
+      </c>
+      <c r="AC30">
+        <v>1.34</v>
+      </c>
+      <c r="AD30">
+        <v>2.83</v>
+      </c>
+      <c r="AE30">
+        <v>1.71</v>
+      </c>
+      <c r="AF30">
+        <v>9</v>
+      </c>
+      <c r="AG30">
         <v>2.5</v>
       </c>
-      <c r="O30">
-        <v>1.09</v>
-      </c>
-      <c r="P30">
-        <v>7</v>
-      </c>
-      <c r="Q30">
-        <v>1.45</v>
-      </c>
-      <c r="R30">
-        <v>2.7</v>
-      </c>
-      <c r="S30">
-        <v>2.3</v>
-      </c>
-      <c r="T30">
-        <v>1.55</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>1.75</v>
-      </c>
-      <c r="W30">
-        <v>1.33</v>
-      </c>
-      <c r="X30">
-        <v>1.3</v>
-      </c>
-      <c r="Y30">
-        <v>1.6</v>
-      </c>
-      <c r="Z30">
-        <v>1.28</v>
-      </c>
-      <c r="AA30">
-        <v>1.06</v>
-      </c>
-      <c r="AB30">
-        <v>1.22</v>
-      </c>
-      <c r="AC30">
-        <v>1.1</v>
-      </c>
-      <c r="AD30">
-        <v>2.32</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
         <v>45363</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>38</v>
@@ -4685,249 +4679,118 @@
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="H31">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I31">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="J31">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="K31">
-        <v>3.45</v>
+        <v>3.51</v>
       </c>
       <c r="L31">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="M31">
+        <v>1.33</v>
+      </c>
+      <c r="N31">
+        <v>3.25</v>
+      </c>
+      <c r="O31">
+        <v>1.05</v>
+      </c>
+      <c r="P31">
+        <v>9.5</v>
+      </c>
+      <c r="Q31">
+        <v>1.25</v>
+      </c>
+      <c r="R31">
+        <v>3.85</v>
+      </c>
+      <c r="S31">
+        <v>1.82</v>
+      </c>
+      <c r="T31">
+        <v>1.98</v>
+      </c>
+      <c r="U31">
+        <v>1.7</v>
+      </c>
+      <c r="V31">
+        <v>2.05</v>
+      </c>
+      <c r="W31">
+        <v>1.22</v>
+      </c>
+      <c r="X31">
+        <v>1.22</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31">
+        <v>2.17</v>
+      </c>
+      <c r="AA31">
+        <v>1.5</v>
+      </c>
+      <c r="AB31">
+        <v>1.47</v>
+      </c>
+      <c r="AC31">
+        <v>1.3</v>
+      </c>
+      <c r="AD31">
+        <v>2.77</v>
+      </c>
+      <c r="AE31">
         <v>1.4</v>
       </c>
-      <c r="N31">
-        <v>2.75</v>
-      </c>
-      <c r="O31">
-        <v>1.06</v>
-      </c>
-      <c r="P31">
-        <v>8.5</v>
-      </c>
-      <c r="Q31">
+      <c r="AF31">
+        <v>9.5</v>
+      </c>
+      <c r="AG31">
+        <v>3.2</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1.33</v>
       </c>
-      <c r="R31">
-        <v>3.2</v>
-      </c>
-      <c r="S31">
-        <v>1.86</v>
-      </c>
-      <c r="T31">
-        <v>1.96</v>
-      </c>
-      <c r="U31">
-        <v>1.8</v>
-      </c>
-      <c r="V31">
-        <v>1.91</v>
-      </c>
-      <c r="W31">
-        <v>1.38</v>
-      </c>
-      <c r="X31">
-        <v>1.28</v>
-      </c>
-      <c r="Y31">
-        <v>1.57</v>
-      </c>
-      <c r="Z31">
-        <v>1.94</v>
-      </c>
-      <c r="AA31">
+      <c r="AK31">
+        <v>2.93</v>
+      </c>
+      <c r="AL31">
+        <v>1.6</v>
+      </c>
+      <c r="AM31">
+        <v>2.19</v>
+      </c>
+      <c r="AN31">
+        <v>2.01</v>
+      </c>
+      <c r="AO31">
+        <v>1.75</v>
+      </c>
+      <c r="AP31">
+        <v>2.58</v>
+      </c>
+      <c r="AQ31">
         <v>1.44</v>
-      </c>
-      <c r="AB31">
-        <v>1.49</v>
-      </c>
-      <c r="AC31">
-        <v>1.34</v>
-      </c>
-      <c r="AD31">
-        <v>2.83</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:43">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="2">
-        <v>45363</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32">
-        <v>2.38</v>
-      </c>
-      <c r="H32">
-        <v>2.25</v>
-      </c>
-      <c r="I32">
-        <v>4.5</v>
-      </c>
-      <c r="J32">
-        <v>1.81</v>
-      </c>
-      <c r="K32">
-        <v>3.8</v>
-      </c>
-      <c r="L32">
-        <v>4.3</v>
-      </c>
-      <c r="M32">
-        <v>1.33</v>
-      </c>
-      <c r="N32">
-        <v>3.25</v>
-      </c>
-      <c r="O32">
-        <v>1.05</v>
-      </c>
-      <c r="P32">
-        <v>9.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.25</v>
-      </c>
-      <c r="R32">
-        <v>3.85</v>
-      </c>
-      <c r="S32">
-        <v>1.72</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>1.7</v>
-      </c>
-      <c r="V32">
-        <v>2.05</v>
-      </c>
-      <c r="W32">
-        <v>1.22</v>
-      </c>
-      <c r="X32">
-        <v>1.22</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>2.17</v>
-      </c>
-      <c r="AA32">
-        <v>1.5</v>
-      </c>
-      <c r="AB32">
-        <v>1.47</v>
-      </c>
-      <c r="AC32">
-        <v>1.3</v>
-      </c>
-      <c r="AD32">
-        <v>2.77</v>
-      </c>
-      <c r="AE32">
-        <v>1.4</v>
-      </c>
-      <c r="AF32">
-        <v>9.5</v>
-      </c>
-      <c r="AG32">
-        <v>3.2</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -211,6 +211,9 @@
     <t>El Gounah</t>
   </si>
   <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
     <t>Newport County</t>
   </si>
   <si>
@@ -220,60 +223,57 @@
     <t>Crewe Alexandra</t>
   </si>
   <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
     <t>Crawley Town</t>
   </si>
   <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
     <t>Wycombe Wanderers</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
     <t>Wrexham</t>
   </si>
   <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
     <t>Bolton Wanderers</t>
   </si>
   <si>
@@ -301,6 +301,9 @@
     <t>Zamalek</t>
   </si>
   <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
     <t>Morecambe</t>
   </si>
   <si>
@@ -310,58 +313,55 @@
     <t>Sutton United</t>
   </si>
   <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Notts County</t>
   </si>
   <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
     <t>Wigan Athletic</t>
   </si>
   <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
     <t>Harrogate Town</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Barrow</t>
   </si>
   <si>
     <t>Oxford United</t>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.45</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1014,61 +1014,61 @@
         <v>88</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z3">
         <v>1.83</v>
@@ -1145,61 +1145,61 @@
         <v>89</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="Z4">
         <v>1.83</v>
@@ -1276,61 +1276,61 @@
         <v>90</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z5">
         <v>1.42</v>
@@ -1538,61 +1538,61 @@
         <v>92</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z7">
         <v>1.17</v>
@@ -1669,22 +1669,22 @@
         <v>93</v>
       </c>
       <c r="G8">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <v>2.3</v>
       </c>
       <c r="I8">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J8">
-        <v>6.05</v>
+        <v>8</v>
       </c>
       <c r="K8">
-        <v>4.01</v>
+        <v>4.2</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1693,37 +1693,37 @@
         <v>2.75</v>
       </c>
       <c r="O8">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="V8">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W8">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="X8">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y8">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="Z8">
         <v>0.57</v>
@@ -1741,13 +1741,13 @@
         <v>3.19</v>
       </c>
       <c r="AE8">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="AF8">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG8">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AH8">
         <v>1.2</v>
@@ -1756,22 +1756,22 @@
         <v>3.86</v>
       </c>
       <c r="AJ8">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AK8">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AL8">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AM8">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="AN8">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="AO8">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AP8">
         <v>2.84</v>
@@ -1800,22 +1800,22 @@
         <v>94</v>
       </c>
       <c r="G9">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>2.1</v>
       </c>
       <c r="I9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J9">
-        <v>3.77</v>
+        <v>3.1</v>
       </c>
       <c r="K9">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M9">
         <v>1.4</v>
@@ -1824,37 +1824,37 @@
         <v>2.75</v>
       </c>
       <c r="O9">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P9">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q9">
         <v>1.3</v>
       </c>
       <c r="R9">
-        <v>3.35</v>
+        <v>1.83</v>
       </c>
       <c r="S9">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="U9">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
         <v>1.91</v>
       </c>
       <c r="W9">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="X9">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y9">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1872,37 +1872,37 @@
         <v>3.04</v>
       </c>
       <c r="AE9">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AF9">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG9">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ9">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AK9">
-        <v>2.84</v>
+        <v>2.51</v>
       </c>
       <c r="AL9">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AM9">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="AN9">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="AO9">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="AP9">
         <v>2.64</v>
@@ -1931,115 +1931,115 @@
         <v>95</v>
       </c>
       <c r="G10">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I10">
         <v>3.75</v>
       </c>
       <c r="J10">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="K10">
+        <v>3.7</v>
+      </c>
+      <c r="L10">
         <v>3.4</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
       <c r="M10">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>1.15</v>
+      </c>
+      <c r="R10">
+        <v>4.5</v>
+      </c>
+      <c r="S10">
+        <v>1.57</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.5</v>
+      </c>
+      <c r="V10">
+        <v>2.5</v>
+      </c>
+      <c r="W10">
+        <v>1.28</v>
+      </c>
+      <c r="X10">
+        <v>1.24</v>
+      </c>
+      <c r="Y10">
+        <v>1.83</v>
+      </c>
+      <c r="Z10">
+        <v>1.72</v>
+      </c>
+      <c r="AA10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>1.48</v>
+      </c>
+      <c r="AC10">
+        <v>1.25</v>
+      </c>
+      <c r="AD10">
+        <v>2.73</v>
+      </c>
+      <c r="AE10">
+        <v>1.6</v>
+      </c>
+      <c r="AF10">
         <v>9.5</v>
       </c>
-      <c r="Q10">
-        <v>1.28</v>
-      </c>
-      <c r="R10">
-        <v>3.65</v>
-      </c>
-      <c r="S10">
-        <v>1.83</v>
-      </c>
-      <c r="T10">
-        <v>1.97</v>
-      </c>
-      <c r="U10">
-        <v>1.67</v>
-      </c>
-      <c r="V10">
-        <v>2.1</v>
-      </c>
-      <c r="W10">
-        <v>1.3</v>
-      </c>
-      <c r="X10">
-        <v>1.25</v>
-      </c>
-      <c r="Y10">
-        <v>1.73</v>
-      </c>
-      <c r="Z10">
-        <v>1.67</v>
-      </c>
-      <c r="AA10">
-        <v>1.44</v>
-      </c>
-      <c r="AB10">
+      <c r="AG10">
+        <v>2.74</v>
+      </c>
+      <c r="AH10">
+        <v>1.21</v>
+      </c>
+      <c r="AI10">
+        <v>3.74</v>
+      </c>
+      <c r="AJ10">
         <v>1.29</v>
       </c>
-      <c r="AC10">
-        <v>1.14</v>
-      </c>
-      <c r="AD10">
-        <v>2.43</v>
-      </c>
-      <c r="AE10">
-        <v>1.68</v>
-      </c>
-      <c r="AF10">
-        <v>9.4</v>
-      </c>
-      <c r="AG10">
-        <v>2.54</v>
-      </c>
-      <c r="AH10">
-        <v>1.13</v>
-      </c>
-      <c r="AI10">
-        <v>4.85</v>
-      </c>
-      <c r="AJ10">
-        <v>1.27</v>
-      </c>
       <c r="AK10">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AL10">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AM10">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="AN10">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AO10">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AP10">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2062,28 +2062,28 @@
         <v>96</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="H11">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I11">
+        <v>3.75</v>
+      </c>
+      <c r="J11">
+        <v>2.04</v>
+      </c>
+      <c r="K11">
+        <v>3.35</v>
+      </c>
+      <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>1.36</v>
+      </c>
+      <c r="N11">
         <v>3</v>
-      </c>
-      <c r="J11">
-        <v>2.65</v>
-      </c>
-      <c r="K11">
-        <v>3.5</v>
-      </c>
-      <c r="L11">
-        <v>2.19</v>
-      </c>
-      <c r="M11">
-        <v>1.33</v>
-      </c>
-      <c r="N11">
-        <v>3.25</v>
       </c>
       <c r="O11">
         <v>1.05</v>
@@ -2092,85 +2092,85 @@
         <v>9.5</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R11">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="S11">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="T11">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V11">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W11">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
         <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="Z11">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AA11">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AB11">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AC11">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="AD11">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="AE11">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="AF11">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AG11">
-        <v>2.03</v>
+        <v>2.54</v>
       </c>
       <c r="AH11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AI11">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AJ11">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AK11">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AL11">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AM11">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AN11">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AO11">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AP11">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="AQ11">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2193,115 +2193,115 @@
         <v>97</v>
       </c>
       <c r="G12">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
         <v>2.25</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>1.68</v>
+        <v>2.8</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
-        <v>4.25</v>
+        <v>2.32</v>
       </c>
       <c r="M12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
         <v>1.05</v>
       </c>
       <c r="P12">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q12">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="S12">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="T12">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="U12">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W12">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="X12">
         <v>1.25</v>
       </c>
       <c r="Y12">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="Z12">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="AA12">
-        <v>0.5600000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AB12">
+        <v>1.36</v>
+      </c>
+      <c r="AC12">
+        <v>1.37</v>
+      </c>
+      <c r="AD12">
+        <v>2.73</v>
+      </c>
+      <c r="AE12">
+        <v>1.99</v>
+      </c>
+      <c r="AF12">
+        <v>9.1</v>
+      </c>
+      <c r="AG12">
+        <v>2.03</v>
+      </c>
+      <c r="AH12">
+        <v>1.14</v>
+      </c>
+      <c r="AI12">
+        <v>4.65</v>
+      </c>
+      <c r="AJ12">
         <v>1.29</v>
       </c>
-      <c r="AC12">
-        <v>1.27</v>
-      </c>
-      <c r="AD12">
-        <v>2.56</v>
-      </c>
-      <c r="AE12">
-        <v>1.65</v>
-      </c>
-      <c r="AF12">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG12">
-        <v>2.62</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>1.28</v>
-      </c>
       <c r="AK12">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AL12">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AM12">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AN12">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AO12">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AP12">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AQ12">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2324,120 +2324,120 @@
         <v>98</v>
       </c>
       <c r="G13">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I13">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>2.45</v>
+        <v>1.81</v>
       </c>
       <c r="K13">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L13">
-        <v>2.26</v>
+        <v>3.8</v>
       </c>
       <c r="M13">
+        <v>1.36</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>1.05</v>
+      </c>
+      <c r="P13">
+        <v>10.25</v>
+      </c>
+      <c r="Q13">
+        <v>1.22</v>
+      </c>
+      <c r="R13">
+        <v>3.65</v>
+      </c>
+      <c r="S13">
+        <v>1.78</v>
+      </c>
+      <c r="T13">
+        <v>1.95</v>
+      </c>
+      <c r="U13">
+        <v>1.73</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1.22</v>
+      </c>
+      <c r="X13">
+        <v>1.25</v>
+      </c>
+      <c r="Y13">
+        <v>1.94</v>
+      </c>
+      <c r="Z13">
+        <v>1.89</v>
+      </c>
+      <c r="AA13">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB13">
         <v>1.29</v>
       </c>
-      <c r="N13">
-        <v>3.5</v>
-      </c>
-      <c r="O13">
-        <v>1.04</v>
-      </c>
-      <c r="P13">
-        <v>10</v>
-      </c>
-      <c r="Q13">
-        <v>1.18</v>
-      </c>
-      <c r="R13">
-        <v>4.75</v>
-      </c>
-      <c r="S13">
-        <v>1.58</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>1.44</v>
-      </c>
-      <c r="V13">
-        <v>2.63</v>
-      </c>
-      <c r="W13">
-        <v>1.55</v>
-      </c>
-      <c r="X13">
-        <v>1.22</v>
-      </c>
-      <c r="Y13">
-        <v>1.45</v>
-      </c>
-      <c r="Z13">
+      <c r="AC13">
+        <v>1.27</v>
+      </c>
+      <c r="AD13">
+        <v>2.56</v>
+      </c>
+      <c r="AE13">
         <v>1.65</v>
       </c>
-      <c r="AA13">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB13">
-        <v>1.46</v>
-      </c>
-      <c r="AC13">
-        <v>1.36</v>
-      </c>
-      <c r="AD13">
-        <v>2.82</v>
-      </c>
-      <c r="AE13">
-        <v>2.04</v>
-      </c>
       <c r="AF13">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG13">
-        <v>1.99</v>
+        <v>2.62</v>
       </c>
       <c r="AH13">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AI13">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AJ13">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AK13">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AL13">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AM13">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="AN13">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="AO13">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="AP13">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>45363</v>
@@ -2455,22 +2455,22 @@
         <v>99</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H14">
         <v>2.2</v>
       </c>
       <c r="I14">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J14">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="K14">
-        <v>3.17</v>
+        <v>3.55</v>
       </c>
       <c r="L14">
-        <v>3.58</v>
+        <v>4.6</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -2479,91 +2479,91 @@
         <v>2.75</v>
       </c>
       <c r="O14">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P14">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="Q14">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R14">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W14">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="X14">
         <v>1.25</v>
       </c>
       <c r="Y14">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="Z14">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AA14">
-        <v>1.11</v>
+        <v>0.82</v>
       </c>
       <c r="AB14">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>1.19</v>
       </c>
       <c r="AD14">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="AE14">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AF14">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG14">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ14">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AK14">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="AL14">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AM14">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="AN14">
         <v>1.95</v>
       </c>
       <c r="AO14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AP14">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="AQ14">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2586,22 +2586,22 @@
         <v>100</v>
       </c>
       <c r="G15">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="H15">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I15">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="J15">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="K15">
-        <v>3.79</v>
+        <v>3.05</v>
       </c>
       <c r="L15">
-        <v>5.18</v>
+        <v>3.15</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2610,91 +2610,91 @@
         <v>2.75</v>
       </c>
       <c r="O15">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P15">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R15">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="S15">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="U15">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="X15">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y15">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="Z15">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AA15">
-        <v>0.82</v>
+        <v>1.44</v>
       </c>
       <c r="AB15">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AC15">
+        <v>1.34</v>
+      </c>
+      <c r="AD15">
+        <v>2.83</v>
+      </c>
+      <c r="AE15">
+        <v>1.71</v>
+      </c>
+      <c r="AF15">
+        <v>9</v>
+      </c>
+      <c r="AG15">
+        <v>2.5</v>
+      </c>
+      <c r="AH15">
         <v>1.19</v>
       </c>
-      <c r="AD15">
-        <v>2.62</v>
-      </c>
-      <c r="AE15">
-        <v>1.47</v>
-      </c>
-      <c r="AF15">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG15">
-        <v>3.2</v>
-      </c>
-      <c r="AH15">
-        <v>1.16</v>
-      </c>
       <c r="AI15">
-        <v>4.4</v>
+        <v>3.96</v>
       </c>
       <c r="AJ15">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AK15">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
       <c r="AL15">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AM15">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="AN15">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AO15">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AP15">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2717,115 +2717,115 @@
         <v>101</v>
       </c>
       <c r="G16">
+        <v>2.88</v>
+      </c>
+      <c r="H16">
+        <v>2.2</v>
+      </c>
+      <c r="I16">
+        <v>3.5</v>
+      </c>
+      <c r="J16">
+        <v>2.23</v>
+      </c>
+      <c r="K16">
+        <v>3.35</v>
+      </c>
+      <c r="L16">
+        <v>2.85</v>
+      </c>
+      <c r="M16">
+        <v>1.36</v>
+      </c>
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="H16">
-        <v>2.05</v>
-      </c>
-      <c r="I16">
+      <c r="O16">
+        <v>1.05</v>
+      </c>
+      <c r="P16">
+        <v>9.5</v>
+      </c>
+      <c r="Q16">
+        <v>1.25</v>
+      </c>
+      <c r="R16">
+        <v>3.85</v>
+      </c>
+      <c r="S16">
+        <v>1.79</v>
+      </c>
+      <c r="T16">
+        <v>1.94</v>
+      </c>
+      <c r="U16">
+        <v>1.67</v>
+      </c>
+      <c r="V16">
+        <v>2.1</v>
+      </c>
+      <c r="W16">
+        <v>1.36</v>
+      </c>
+      <c r="X16">
+        <v>1.25</v>
+      </c>
+      <c r="Y16">
+        <v>1.65</v>
+      </c>
+      <c r="Z16">
+        <v>1.06</v>
+      </c>
+      <c r="AA16">
+        <v>0.78</v>
+      </c>
+      <c r="AB16">
+        <v>1.47</v>
+      </c>
+      <c r="AC16">
+        <v>1.18</v>
+      </c>
+      <c r="AD16">
+        <v>2.65</v>
+      </c>
+      <c r="AE16">
+        <v>1.71</v>
+      </c>
+      <c r="AF16">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG16">
+        <v>2.48</v>
+      </c>
+      <c r="AH16">
+        <v>1.2</v>
+      </c>
+      <c r="AI16">
         <v>4</v>
       </c>
-      <c r="J16">
-        <v>2.17</v>
-      </c>
-      <c r="K16">
-        <v>3.15</v>
-      </c>
-      <c r="L16">
-        <v>2.95</v>
-      </c>
-      <c r="M16">
-        <v>1.44</v>
-      </c>
-      <c r="N16">
-        <v>2.63</v>
-      </c>
-      <c r="O16">
-        <v>1.04</v>
-      </c>
-      <c r="P16">
-        <v>7.6</v>
-      </c>
-      <c r="Q16">
-        <v>1.36</v>
-      </c>
-      <c r="R16">
-        <v>2.79</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.72</v>
-      </c>
-      <c r="U16">
-        <v>1.91</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
-      <c r="W16">
-        <v>1.31</v>
-      </c>
-      <c r="X16">
-        <v>1.31</v>
-      </c>
-      <c r="Y16">
-        <v>1.64</v>
-      </c>
-      <c r="Z16">
-        <v>1.61</v>
-      </c>
-      <c r="AA16">
-        <v>1.39</v>
-      </c>
-      <c r="AB16">
-        <v>1.6</v>
-      </c>
-      <c r="AC16">
-        <v>1.24</v>
-      </c>
-      <c r="AD16">
-        <v>2.84</v>
-      </c>
-      <c r="AE16">
-        <v>1.76</v>
-      </c>
-      <c r="AF16">
-        <v>9</v>
-      </c>
-      <c r="AG16">
-        <v>2.4</v>
-      </c>
-      <c r="AH16">
-        <v>1.18</v>
-      </c>
-      <c r="AI16">
-        <v>4.1</v>
-      </c>
       <c r="AJ16">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AK16">
-        <v>2.79</v>
+        <v>3.08</v>
       </c>
       <c r="AL16">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AM16">
-        <v>2.11</v>
+        <v>2.28</v>
       </c>
       <c r="AN16">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="AO16">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AP16">
-        <v>2.71</v>
+        <v>2.45</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2848,115 +2848,115 @@
         <v>102</v>
       </c>
       <c r="G17">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="H17">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I17">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="J17">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="K17">
         <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.15</v>
+        <v>1.85</v>
       </c>
       <c r="M17">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O17">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Q17">
+        <v>1.22</v>
+      </c>
+      <c r="R17">
+        <v>3.65</v>
+      </c>
+      <c r="S17">
+        <v>1.75</v>
+      </c>
+      <c r="T17">
+        <v>1.95</v>
+      </c>
+      <c r="U17">
+        <v>1.67</v>
+      </c>
+      <c r="V17">
+        <v>2.1</v>
+      </c>
+      <c r="W17">
+        <v>1.93</v>
+      </c>
+      <c r="X17">
+        <v>1.25</v>
+      </c>
+      <c r="Y17">
+        <v>1.23</v>
+      </c>
+      <c r="Z17">
+        <v>1.78</v>
+      </c>
+      <c r="AA17">
+        <v>1.83</v>
+      </c>
+      <c r="AB17">
+        <v>1.45</v>
+      </c>
+      <c r="AC17">
+        <v>1.59</v>
+      </c>
+      <c r="AD17">
+        <v>3.04</v>
+      </c>
+      <c r="AE17">
+        <v>2.51</v>
+      </c>
+      <c r="AF17">
+        <v>9.6</v>
+      </c>
+      <c r="AG17">
+        <v>1.69</v>
+      </c>
+      <c r="AH17">
         <v>1.15</v>
       </c>
-      <c r="R17">
-        <v>4.5</v>
-      </c>
-      <c r="S17">
-        <v>1.68</v>
-      </c>
-      <c r="T17">
-        <v>2.05</v>
-      </c>
-      <c r="U17">
-        <v>1.5</v>
-      </c>
-      <c r="V17">
-        <v>2.5</v>
-      </c>
-      <c r="W17">
-        <v>1.28</v>
-      </c>
-      <c r="X17">
-        <v>1.24</v>
-      </c>
-      <c r="Y17">
-        <v>1.83</v>
-      </c>
-      <c r="Z17">
-        <v>1.72</v>
-      </c>
-      <c r="AA17">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB17">
-        <v>1.48</v>
-      </c>
-      <c r="AC17">
-        <v>1.25</v>
-      </c>
-      <c r="AD17">
-        <v>2.73</v>
-      </c>
-      <c r="AE17">
-        <v>1.6</v>
-      </c>
-      <c r="AF17">
-        <v>9.5</v>
-      </c>
-      <c r="AG17">
-        <v>2.74</v>
-      </c>
-      <c r="AH17">
-        <v>1.21</v>
-      </c>
       <c r="AI17">
-        <v>3.74</v>
+        <v>4.75</v>
       </c>
       <c r="AJ17">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AK17">
-        <v>3.14</v>
+        <v>3.65</v>
       </c>
       <c r="AL17">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AM17">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AN17">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AO17">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="AP17">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="AQ17">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2979,120 +2979,120 @@
         <v>103</v>
       </c>
       <c r="G18">
+        <v>3.1</v>
+      </c>
+      <c r="H18">
+        <v>2.4</v>
+      </c>
+      <c r="I18">
         <v>2.88</v>
       </c>
-      <c r="H18">
-        <v>2.2</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
+        <v>2.5</v>
+      </c>
+      <c r="K18">
+        <v>3.55</v>
+      </c>
+      <c r="L18">
+        <v>2.38</v>
+      </c>
+      <c r="M18">
+        <v>1.29</v>
+      </c>
+      <c r="N18">
         <v>3.5</v>
       </c>
-      <c r="J18">
-        <v>2.14</v>
-      </c>
-      <c r="K18">
-        <v>3.4</v>
-      </c>
-      <c r="L18">
-        <v>2.79</v>
-      </c>
-      <c r="M18">
+      <c r="O18">
+        <v>1.04</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>1.18</v>
+      </c>
+      <c r="R18">
+        <v>4.75</v>
+      </c>
+      <c r="S18">
+        <v>1.45</v>
+      </c>
+      <c r="T18">
+        <v>2.56</v>
+      </c>
+      <c r="U18">
+        <v>1.44</v>
+      </c>
+      <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.55</v>
+      </c>
+      <c r="X18">
+        <v>1.22</v>
+      </c>
+      <c r="Y18">
+        <v>1.45</v>
+      </c>
+      <c r="Z18">
+        <v>1.65</v>
+      </c>
+      <c r="AA18">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB18">
+        <v>1.46</v>
+      </c>
+      <c r="AC18">
         <v>1.36</v>
       </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>1.05</v>
-      </c>
-      <c r="P18">
-        <v>9.5</v>
-      </c>
-      <c r="Q18">
-        <v>1.25</v>
-      </c>
-      <c r="R18">
-        <v>3.85</v>
-      </c>
-      <c r="S18">
-        <v>1.82</v>
-      </c>
-      <c r="T18">
-        <v>1.98</v>
-      </c>
-      <c r="U18">
+      <c r="AD18">
+        <v>2.82</v>
+      </c>
+      <c r="AE18">
+        <v>2.04</v>
+      </c>
+      <c r="AF18">
+        <v>8.9</v>
+      </c>
+      <c r="AG18">
+        <v>1.99</v>
+      </c>
+      <c r="AH18">
+        <v>1.17</v>
+      </c>
+      <c r="AI18">
+        <v>4.15</v>
+      </c>
+      <c r="AJ18">
+        <v>1.35</v>
+      </c>
+      <c r="AK18">
+        <v>2.84</v>
+      </c>
+      <c r="AL18">
+        <v>1.64</v>
+      </c>
+      <c r="AM18">
+        <v>2.12</v>
+      </c>
+      <c r="AN18">
+        <v>2.03</v>
+      </c>
+      <c r="AO18">
         <v>1.67</v>
       </c>
-      <c r="V18">
-        <v>2.1</v>
-      </c>
-      <c r="W18">
-        <v>1.36</v>
-      </c>
-      <c r="X18">
-        <v>1.25</v>
-      </c>
-      <c r="Y18">
-        <v>1.65</v>
-      </c>
-      <c r="Z18">
-        <v>1.06</v>
-      </c>
-      <c r="AA18">
-        <v>0.78</v>
-      </c>
-      <c r="AB18">
-        <v>1.47</v>
-      </c>
-      <c r="AC18">
-        <v>1.18</v>
-      </c>
-      <c r="AD18">
-        <v>2.65</v>
-      </c>
-      <c r="AE18">
-        <v>1.71</v>
-      </c>
-      <c r="AF18">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG18">
-        <v>2.48</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>1.3</v>
-      </c>
-      <c r="AK18">
-        <v>3.08</v>
-      </c>
-      <c r="AL18">
-        <v>1.53</v>
-      </c>
-      <c r="AM18">
-        <v>2.28</v>
-      </c>
-      <c r="AN18">
-        <v>1.92</v>
-      </c>
-      <c r="AO18">
-        <v>1.79</v>
-      </c>
       <c r="AP18">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="AQ18">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>45363</v>
@@ -3110,115 +3110,115 @@
         <v>104</v>
       </c>
       <c r="G19">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="H19">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I19">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>3.4</v>
+        <v>1.27</v>
       </c>
       <c r="K19">
-        <v>3.45</v>
+        <v>4.55</v>
       </c>
       <c r="L19">
-        <v>1.86</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N19">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P19">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q19">
+        <v>1.25</v>
+      </c>
+      <c r="R19">
+        <v>3.75</v>
+      </c>
+      <c r="S19">
+        <v>1.67</v>
+      </c>
+      <c r="T19">
+        <v>2.07</v>
+      </c>
+      <c r="U19">
+        <v>2.05</v>
+      </c>
+      <c r="V19">
+        <v>1.7</v>
+      </c>
+      <c r="W19">
+        <v>1.08</v>
+      </c>
+      <c r="X19">
+        <v>1.21</v>
+      </c>
+      <c r="Y19">
+        <v>2.82</v>
+      </c>
+      <c r="Z19">
+        <v>2.22</v>
+      </c>
+      <c r="AA19">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB19">
+        <v>1.55</v>
+      </c>
+      <c r="AC19">
+        <v>0.95</v>
+      </c>
+      <c r="AD19">
+        <v>2.5</v>
+      </c>
+      <c r="AE19">
         <v>1.22</v>
       </c>
-      <c r="R19">
-        <v>3.65</v>
-      </c>
-      <c r="S19">
-        <v>1.83</v>
-      </c>
-      <c r="T19">
-        <v>1.83</v>
-      </c>
-      <c r="U19">
-        <v>1.67</v>
-      </c>
-      <c r="V19">
-        <v>2.1</v>
-      </c>
-      <c r="W19">
-        <v>1.93</v>
-      </c>
-      <c r="X19">
-        <v>1.25</v>
-      </c>
-      <c r="Y19">
-        <v>1.23</v>
-      </c>
-      <c r="Z19">
-        <v>1.78</v>
-      </c>
-      <c r="AA19">
-        <v>1.83</v>
-      </c>
-      <c r="AB19">
-        <v>1.45</v>
-      </c>
-      <c r="AC19">
-        <v>1.59</v>
-      </c>
-      <c r="AD19">
-        <v>3.04</v>
-      </c>
-      <c r="AE19">
-        <v>2.51</v>
-      </c>
       <c r="AF19">
-        <v>9.6</v>
+        <v>11.7</v>
       </c>
       <c r="AG19">
-        <v>1.69</v>
+        <v>5.53</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AJ19">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AK19">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="AL19">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="AM19">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AN19">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="AO19">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="AP19">
-        <v>2.12</v>
+        <v>2.79</v>
       </c>
       <c r="AQ19">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3250,13 +3250,13 @@
         <v>3.4</v>
       </c>
       <c r="J20">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K20">
         <v>3.15</v>
       </c>
       <c r="L20">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M20">
         <v>1.36</v>
@@ -3277,10 +3277,10 @@
         <v>3.65</v>
       </c>
       <c r="S20">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="T20">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U20">
         <v>1.7</v>
@@ -3322,10 +3322,10 @@
         <v>2.19</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ20">
         <v>1.23</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>45363</v>
@@ -3372,115 +3372,115 @@
         <v>106</v>
       </c>
       <c r="G21">
-        <v>1.83</v>
+        <v>4.33</v>
       </c>
       <c r="H21">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="I21">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="J21">
-        <v>1.33</v>
+        <v>4.4</v>
       </c>
       <c r="K21">
-        <v>4.65</v>
+        <v>3.65</v>
       </c>
       <c r="L21">
-        <v>6.93</v>
+        <v>1.58</v>
       </c>
       <c r="M21">
+        <v>1.36</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>1.05</v>
+      </c>
+      <c r="P21">
+        <v>9.5</v>
+      </c>
+      <c r="Q21">
         <v>1.25</v>
       </c>
-      <c r="N21">
-        <v>3.75</v>
-      </c>
-      <c r="O21">
-        <v>1.03</v>
-      </c>
-      <c r="P21">
-        <v>11</v>
-      </c>
-      <c r="Q21">
-        <v>1.15</v>
-      </c>
       <c r="R21">
-        <v>5.25</v>
+        <v>3.85</v>
       </c>
       <c r="S21">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="T21">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V21">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W21">
-        <v>1.09</v>
+        <v>1.85</v>
       </c>
       <c r="X21">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="Y21">
-        <v>2.95</v>
+        <v>1.25</v>
       </c>
       <c r="Z21">
-        <v>2.41</v>
+        <v>0.78</v>
       </c>
       <c r="AA21">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="AB21">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
       <c r="AC21">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="AD21">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AE21">
-        <v>1.19</v>
+        <v>2.57</v>
       </c>
       <c r="AF21">
-        <v>12.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG21">
-        <v>5.74</v>
+        <v>1.7</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ21">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AK21">
-        <v>3.48</v>
+        <v>2.89</v>
       </c>
       <c r="AL21">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AM21">
-        <v>2.51</v>
+        <v>2.18</v>
       </c>
       <c r="AN21">
-        <v>1.77</v>
+        <v>2.03</v>
       </c>
       <c r="AO21">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="AP21">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="AQ21">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3512,13 +3512,13 @@
         <v>5.5</v>
       </c>
       <c r="J22">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K22">
-        <v>3.53</v>
+        <v>3.65</v>
       </c>
       <c r="L22">
-        <v>4.44</v>
+        <v>4.65</v>
       </c>
       <c r="M22">
         <v>1.33</v>
@@ -3539,10 +3539,10 @@
         <v>3.85</v>
       </c>
       <c r="S22">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U22">
         <v>1.8</v>
@@ -3584,10 +3584,10 @@
         <v>3.5</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ22">
         <v>1.28</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>45363</v>
@@ -3625,7 +3625,7 @@
         <v>55</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
         <v>78</v>
@@ -3634,115 +3634,115 @@
         <v>108</v>
       </c>
       <c r="G23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I23">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>2.57</v>
+        <v>2.17</v>
       </c>
       <c r="K23">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="O23">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P23">
-        <v>20.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q23">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="R23">
-        <v>5.7</v>
+        <v>2.79</v>
       </c>
       <c r="S23">
-        <v>1.82</v>
+        <v>2.23</v>
       </c>
       <c r="T23">
-        <v>2.01</v>
+        <v>1.58</v>
       </c>
       <c r="U23">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="V23">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="X23">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="Y23">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="Z23">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AA23">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AB23">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="AC23">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="AD23">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="AE23">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="AF23">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AG23">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="AH23">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AI23">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AJ23">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AK23">
-        <v>3.08</v>
+        <v>2.79</v>
       </c>
       <c r="AL23">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AM23">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="AN23">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AO23">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="AP23">
-        <v>2.46</v>
+        <v>2.71</v>
       </c>
       <c r="AQ23">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3774,13 +3774,13 @@
         <v>5.5</v>
       </c>
       <c r="J24">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="K24">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="L24">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="M24">
         <v>1.36</v>
@@ -3801,10 +3801,10 @@
         <v>3.1</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T24">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U24">
         <v>1.95</v>
@@ -3846,10 +3846,10 @@
         <v>3.5</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ24">
         <v>1.36</v>
@@ -3905,13 +3905,13 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="K25">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="L25">
-        <v>4.43</v>
+        <v>4.9</v>
       </c>
       <c r="M25">
         <v>1.5</v>
@@ -3932,10 +3932,10 @@
         <v>2.85</v>
       </c>
       <c r="S25">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="T25">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U25">
         <v>2.05</v>
@@ -4036,13 +4036,13 @@
         <v>2.5</v>
       </c>
       <c r="J26">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K26">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="M26">
         <v>1.36</v>
@@ -4063,10 +4063,10 @@
         <v>3.75</v>
       </c>
       <c r="S26">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="U26">
         <v>1.7</v>
@@ -4158,120 +4158,120 @@
         <v>112</v>
       </c>
       <c r="G27">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>2.28</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>2.77</v>
+      </c>
+      <c r="M27">
+        <v>1.5</v>
+      </c>
+      <c r="N27">
+        <v>2.5</v>
+      </c>
+      <c r="O27">
+        <v>1.09</v>
+      </c>
+      <c r="P27">
         <v>7</v>
       </c>
-      <c r="J27">
+      <c r="Q27">
+        <v>1.45</v>
+      </c>
+      <c r="R27">
+        <v>2.7</v>
+      </c>
+      <c r="S27">
+        <v>2.07</v>
+      </c>
+      <c r="T27">
+        <v>1.67</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1.75</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>1.3</v>
+      </c>
+      <c r="Y27">
+        <v>1.6</v>
+      </c>
+      <c r="Z27">
+        <v>1.28</v>
+      </c>
+      <c r="AA27">
+        <v>1.06</v>
+      </c>
+      <c r="AB27">
+        <v>1.22</v>
+      </c>
+      <c r="AC27">
+        <v>1.1</v>
+      </c>
+      <c r="AD27">
+        <v>2.32</v>
+      </c>
+      <c r="AE27">
+        <v>1.85</v>
+      </c>
+      <c r="AF27">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG27">
+        <v>2.25</v>
+      </c>
+      <c r="AH27">
+        <v>1.15</v>
+      </c>
+      <c r="AI27">
+        <v>4.75</v>
+      </c>
+      <c r="AJ27">
+        <v>1.19</v>
+      </c>
+      <c r="AK27">
+        <v>3.94</v>
+      </c>
+      <c r="AL27">
         <v>1.38</v>
       </c>
-      <c r="K27">
-        <v>4.03</v>
-      </c>
-      <c r="L27">
-        <v>6.8</v>
-      </c>
-      <c r="M27">
-        <v>1.36</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>1.05</v>
-      </c>
-      <c r="P27">
-        <v>9.5</v>
-      </c>
-      <c r="Q27">
-        <v>1.25</v>
-      </c>
-      <c r="R27">
-        <v>3.75</v>
-      </c>
-      <c r="S27">
-        <v>1.92</v>
-      </c>
-      <c r="T27">
-        <v>1.88</v>
-      </c>
-      <c r="U27">
-        <v>2.05</v>
-      </c>
-      <c r="V27">
-        <v>1.7</v>
-      </c>
-      <c r="W27">
-        <v>1.08</v>
-      </c>
-      <c r="X27">
-        <v>1.21</v>
-      </c>
-      <c r="Y27">
-        <v>2.82</v>
-      </c>
-      <c r="Z27">
-        <v>2.22</v>
-      </c>
-      <c r="AA27">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB27">
-        <v>1.55</v>
-      </c>
-      <c r="AC27">
-        <v>0.95</v>
-      </c>
-      <c r="AD27">
-        <v>2.5</v>
-      </c>
-      <c r="AE27">
-        <v>1.22</v>
-      </c>
-      <c r="AF27">
-        <v>11.7</v>
-      </c>
-      <c r="AG27">
-        <v>5.53</v>
-      </c>
-      <c r="AH27">
-        <v>1.2</v>
-      </c>
-      <c r="AI27">
-        <v>3.86</v>
-      </c>
-      <c r="AJ27">
-        <v>1.4</v>
-      </c>
-      <c r="AK27">
-        <v>2.72</v>
-      </c>
-      <c r="AL27">
-        <v>1.72</v>
-      </c>
       <c r="AM27">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="AN27">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="AO27">
-        <v>1.62</v>
+        <v>2.13</v>
       </c>
       <c r="AP27">
-        <v>2.79</v>
+        <v>2.04</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>45363</v>
@@ -4280,7 +4280,7 @@
         <v>55</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
@@ -4292,112 +4292,112 @@
         <v>3.1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="J28">
-        <v>2.31</v>
+        <v>2.7</v>
       </c>
       <c r="K28">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="L28">
-        <v>2.83</v>
+        <v>2.22</v>
       </c>
       <c r="M28">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N28">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O28">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>20.5</v>
       </c>
       <c r="Q28">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="R28">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
+        <v>1.9</v>
+      </c>
+      <c r="U28">
+        <v>1.55</v>
+      </c>
+      <c r="V28">
         <v>2.3</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>1.55</v>
       </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>1.75</v>
-      </c>
-      <c r="W28">
-        <v>1.33</v>
-      </c>
       <c r="X28">
+        <v>1.28</v>
+      </c>
+      <c r="Y28">
+        <v>1.43</v>
+      </c>
+      <c r="Z28">
+        <v>1.59</v>
+      </c>
+      <c r="AA28">
+        <v>1.44</v>
+      </c>
+      <c r="AB28">
+        <v>1.27</v>
+      </c>
+      <c r="AC28">
+        <v>1.39</v>
+      </c>
+      <c r="AD28">
+        <v>2.66</v>
+      </c>
+      <c r="AE28">
+        <v>2.24</v>
+      </c>
+      <c r="AF28">
+        <v>9.4</v>
+      </c>
+      <c r="AG28">
+        <v>1.85</v>
+      </c>
+      <c r="AH28">
+        <v>1.14</v>
+      </c>
+      <c r="AI28">
+        <v>4.6</v>
+      </c>
+      <c r="AJ28">
         <v>1.3</v>
       </c>
-      <c r="Y28">
-        <v>1.6</v>
-      </c>
-      <c r="Z28">
-        <v>1.28</v>
-      </c>
-      <c r="AA28">
-        <v>1.06</v>
-      </c>
-      <c r="AB28">
-        <v>1.22</v>
-      </c>
-      <c r="AC28">
-        <v>1.1</v>
-      </c>
-      <c r="AD28">
-        <v>2.32</v>
-      </c>
-      <c r="AE28">
-        <v>1.85</v>
-      </c>
-      <c r="AF28">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG28">
-        <v>2.25</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>1.19</v>
-      </c>
       <c r="AK28">
-        <v>3.94</v>
+        <v>3.08</v>
       </c>
       <c r="AL28">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="AM28">
-        <v>2.8</v>
+        <v>2.29</v>
       </c>
       <c r="AN28">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AO28">
-        <v>2.13</v>
+        <v>1.82</v>
       </c>
       <c r="AP28">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="AQ28">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4420,115 +4420,115 @@
         <v>114</v>
       </c>
       <c r="G29">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="H29">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I29">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="J29">
-        <v>3.92</v>
+        <v>1.73</v>
       </c>
       <c r="K29">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L29">
-        <v>1.73</v>
+        <v>3.9</v>
       </c>
       <c r="M29">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P29">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q29">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="R29">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="S29">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U29">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="X29">
         <v>1.25</v>
       </c>
       <c r="Y29">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Z29">
-        <v>0.78</v>
+        <v>1.33</v>
       </c>
       <c r="AA29">
-        <v>2.12</v>
+        <v>1.11</v>
       </c>
       <c r="AB29">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="AC29">
-        <v>1.37</v>
+        <v>0.95</v>
       </c>
       <c r="AD29">
+        <v>2.46</v>
+      </c>
+      <c r="AE29">
+        <v>1.66</v>
+      </c>
+      <c r="AF29">
+        <v>9.5</v>
+      </c>
+      <c r="AG29">
         <v>2.64</v>
-      </c>
-      <c r="AE29">
-        <v>2.57</v>
-      </c>
-      <c r="AF29">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG29">
-        <v>1.7</v>
       </c>
       <c r="AH29">
         <v>1.17</v>
       </c>
       <c r="AI29">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AJ29">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AK29">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="AL29">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AM29">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="AN29">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AO29">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AP29">
-        <v>2.64</v>
+        <v>2.49</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="30" spans="1:43">
@@ -4551,46 +4551,46 @@
         <v>115</v>
       </c>
       <c r="G30">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="H30">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="I30">
+        <v>6.5</v>
+      </c>
+      <c r="J30">
+        <v>1.3</v>
+      </c>
+      <c r="K30">
+        <v>5.1</v>
+      </c>
+      <c r="L30">
+        <v>7.5</v>
+      </c>
+      <c r="M30">
+        <v>1.25</v>
+      </c>
+      <c r="N30">
         <v>3.75</v>
       </c>
-      <c r="J30">
-        <v>2.19</v>
-      </c>
-      <c r="K30">
-        <v>3.25</v>
-      </c>
-      <c r="L30">
-        <v>2.8</v>
-      </c>
-      <c r="M30">
-        <v>1.4</v>
-      </c>
-      <c r="N30">
-        <v>2.75</v>
-      </c>
       <c r="O30">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P30">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q30">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="R30">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="S30">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="T30">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
         <v>1.8</v>
@@ -4599,67 +4599,67 @@
         <v>1.91</v>
       </c>
       <c r="W30">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="X30">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="Y30">
+        <v>2.95</v>
+      </c>
+      <c r="Z30">
+        <v>2.41</v>
+      </c>
+      <c r="AA30">
+        <v>1.61</v>
+      </c>
+      <c r="AB30">
+        <v>1.86</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>2.87</v>
+      </c>
+      <c r="AE30">
+        <v>1.19</v>
+      </c>
+      <c r="AF30">
+        <v>12.7</v>
+      </c>
+      <c r="AG30">
+        <v>5.74</v>
+      </c>
+      <c r="AH30">
+        <v>1.17</v>
+      </c>
+      <c r="AI30">
+        <v>4.5</v>
+      </c>
+      <c r="AJ30">
+        <v>1.24</v>
+      </c>
+      <c r="AK30">
+        <v>3.48</v>
+      </c>
+      <c r="AL30">
+        <v>1.44</v>
+      </c>
+      <c r="AM30">
+        <v>2.51</v>
+      </c>
+      <c r="AN30">
+        <v>1.77</v>
+      </c>
+      <c r="AO30">
+        <v>1.94</v>
+      </c>
+      <c r="AP30">
+        <v>2.19</v>
+      </c>
+      <c r="AQ30">
         <v>1.57</v>
-      </c>
-      <c r="Z30">
-        <v>1.94</v>
-      </c>
-      <c r="AA30">
-        <v>1.44</v>
-      </c>
-      <c r="AB30">
-        <v>1.49</v>
-      </c>
-      <c r="AC30">
-        <v>1.34</v>
-      </c>
-      <c r="AD30">
-        <v>2.83</v>
-      </c>
-      <c r="AE30">
-        <v>1.71</v>
-      </c>
-      <c r="AF30">
-        <v>9</v>
-      </c>
-      <c r="AG30">
-        <v>2.5</v>
-      </c>
-      <c r="AH30">
-        <v>1.19</v>
-      </c>
-      <c r="AI30">
-        <v>3.96</v>
-      </c>
-      <c r="AJ30">
-        <v>1.38</v>
-      </c>
-      <c r="AK30">
-        <v>2.71</v>
-      </c>
-      <c r="AL30">
-        <v>1.68</v>
-      </c>
-      <c r="AM30">
-        <v>2.06</v>
-      </c>
-      <c r="AN30">
-        <v>2.1</v>
-      </c>
-      <c r="AO30">
-        <v>1.62</v>
-      </c>
-      <c r="AP30">
-        <v>2.78</v>
-      </c>
-      <c r="AQ30">
-        <v>1.36</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4691,13 +4691,13 @@
         <v>4.5</v>
       </c>
       <c r="J31">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="K31">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="M31">
         <v>1.33</v>
@@ -4718,7 +4718,7 @@
         <v>3.85</v>
       </c>
       <c r="S31">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="T31">
         <v>1.98</v>
@@ -4763,10 +4763,10 @@
         <v>3.2</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ31">
         <v>1.33</v>

--- a/Jogos_do_Dia/2024-03-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>League</t>
   </si>
@@ -205,6 +205,9 @@
     <t>IMT Novi Beograd</t>
   </si>
   <si>
+    <t>Masr</t>
+  </si>
+  <si>
     <t>National Bank of Egypt</t>
   </si>
   <si>
@@ -220,57 +223,57 @@
     <t>Grimsby Town</t>
   </si>
   <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
     <t>Crewe Alexandra</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
   </si>
   <si>
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
     <t>Shrewsbury Town</t>
   </si>
   <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
     <t>Birmingham City</t>
   </si>
   <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
     <t>Wrexham</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
     <t>Vojvodina</t>
   </si>
   <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -310,55 +316,55 @@
     <t>Milton Keynes Dons</t>
   </si>
   <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Sutton United</t>
   </si>
   <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Notts County</t>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
   </si>
   <si>
     <t>Burton Albion</t>
   </si>
   <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
     <t>Exeter City</t>
   </si>
   <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
     <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
   </si>
   <si>
     <t>Harrogate Town</t>
@@ -726,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ31"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +886,7 @@
         <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -892,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="K2">
-        <v>4.58</v>
+        <v>4.1</v>
       </c>
       <c r="L2">
-        <v>7.45</v>
+        <v>6.6</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -919,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="T2">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -940,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AA2">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AB2">
         <v>1.87</v>
@@ -1011,7 +1017,7 @@
         <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1023,13 +1029,13 @@
         <v>5.75</v>
       </c>
       <c r="J3">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>5.85</v>
+        <v>5.5</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -1050,10 +1056,10 @@
         <v>3.45</v>
       </c>
       <c r="S3">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
         <v>1.93</v>
@@ -1142,7 +1148,7 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <v>2.25</v>
@@ -1154,13 +1160,13 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="K4">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L4">
-        <v>4.72</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>1.38</v>
@@ -1181,10 +1187,10 @@
         <v>3.34</v>
       </c>
       <c r="S4">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T4">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
         <v>1.8</v>
@@ -1273,7 +1279,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5">
         <v>2.75</v>
@@ -1285,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="K5">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
-        <v>3.37</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
         <v>1.45</v>
@@ -1312,10 +1318,10 @@
         <v>2.9</v>
       </c>
       <c r="S5">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T5">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U5">
         <v>1.91</v>
@@ -1404,7 +1410,7 @@
         <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6">
         <v>2.02</v>
@@ -1535,7 +1541,7 @@
         <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <v>3.92</v>
@@ -1547,13 +1553,13 @@
         <v>2.66</v>
       </c>
       <c r="J7">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="K7">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="L7">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="M7">
         <v>1.42</v>
@@ -1574,10 +1580,10 @@
         <v>3.08</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U7">
         <v>1.78</v>
@@ -1631,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -1660,124 +1666,124 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="H8">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="I8">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>2.88</v>
       </c>
       <c r="K8">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O8">
         <v>1.01</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q8">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="R8">
-        <v>3.6</v>
+        <v>2.72</v>
       </c>
       <c r="S8">
+        <v>2.24</v>
+      </c>
+      <c r="T8">
+        <v>1.58</v>
+      </c>
+      <c r="U8">
+        <v>1.91</v>
+      </c>
+      <c r="V8">
         <v>1.8</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>2.2</v>
-      </c>
-      <c r="V8">
-        <v>1.62</v>
-      </c>
       <c r="W8">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="X8">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="Y8">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="Z8">
-        <v>0.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA8">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AB8">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="AC8">
-        <v>1.77</v>
+        <v>1.1</v>
       </c>
       <c r="AD8">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AE8">
-        <v>3.04</v>
+        <v>1.98</v>
       </c>
       <c r="AF8">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG8">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="AH8">
+        <v>1.34</v>
+      </c>
+      <c r="AI8">
+        <v>2.88</v>
+      </c>
+      <c r="AJ8">
+        <v>1.68</v>
+      </c>
+      <c r="AK8">
+        <v>2.14</v>
+      </c>
+      <c r="AL8">
+        <v>2.1</v>
+      </c>
+      <c r="AM8">
+        <v>1.71</v>
+      </c>
+      <c r="AN8">
+        <v>2.75</v>
+      </c>
+      <c r="AO8">
+        <v>1.37</v>
+      </c>
+      <c r="AP8">
+        <v>3.86</v>
+      </c>
+      <c r="AQ8">
         <v>1.2</v>
-      </c>
-      <c r="AI8">
-        <v>3.86</v>
-      </c>
-      <c r="AJ8">
-        <v>1.52</v>
-      </c>
-      <c r="AK8">
-        <v>2.46</v>
-      </c>
-      <c r="AL8">
-        <v>1.9</v>
-      </c>
-      <c r="AM8">
-        <v>1.9</v>
-      </c>
-      <c r="AN8">
-        <v>2.44</v>
-      </c>
-      <c r="AO8">
-        <v>1.53</v>
-      </c>
-      <c r="AP8">
-        <v>2.84</v>
-      </c>
-      <c r="AQ8">
-        <v>1.35</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1797,25 +1803,25 @@
         <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="I9">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="L9">
-        <v>2.05</v>
+        <v>1.38</v>
       </c>
       <c r="M9">
         <v>1.4</v>
@@ -1824,222 +1830,222 @@
         <v>2.75</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q9">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R9">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="T9">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V9">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W9">
-        <v>1.91</v>
+        <v>2.72</v>
       </c>
       <c r="X9">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Y9">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AA9">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AB9">
+        <v>1.42</v>
+      </c>
+      <c r="AC9">
+        <v>1.77</v>
+      </c>
+      <c r="AD9">
+        <v>3.19</v>
+      </c>
+      <c r="AE9">
+        <v>3.58</v>
+      </c>
+      <c r="AF9">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG9">
         <v>1.36</v>
       </c>
-      <c r="AC9">
-        <v>1.68</v>
-      </c>
-      <c r="AD9">
-        <v>3.04</v>
-      </c>
-      <c r="AE9">
-        <v>2.64</v>
-      </c>
-      <c r="AF9">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG9">
-        <v>1.6</v>
-      </c>
       <c r="AH9">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AI9">
-        <v>3.4</v>
+        <v>3.86</v>
       </c>
       <c r="AJ9">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AK9">
-        <v>2.51</v>
+        <v>2.46</v>
       </c>
       <c r="AL9">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="AM9">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AN9">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AO9">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AP9">
-        <v>2.64</v>
+        <v>2.84</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>45363</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2.1</v>
+      </c>
+      <c r="I10">
         <v>2.6</v>
       </c>
-      <c r="H10">
-        <v>2.38</v>
-      </c>
-      <c r="I10">
-        <v>3.75</v>
-      </c>
       <c r="J10">
+        <v>3.5</v>
+      </c>
+      <c r="K10">
+        <v>3.2</v>
+      </c>
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>3.7</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
       <c r="M10">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O10">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P10">
         <v>10</v>
       </c>
       <c r="Q10">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="R10">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="S10">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="U10">
+        <v>1.83</v>
+      </c>
+      <c r="V10">
+        <v>1.83</v>
+      </c>
+      <c r="W10">
+        <v>1.91</v>
+      </c>
+      <c r="X10">
+        <v>1.3</v>
+      </c>
+      <c r="Y10">
+        <v>1.24</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1.33</v>
+      </c>
+      <c r="AB10">
+        <v>1.36</v>
+      </c>
+      <c r="AC10">
+        <v>1.68</v>
+      </c>
+      <c r="AD10">
+        <v>3.04</v>
+      </c>
+      <c r="AE10">
+        <v>2.64</v>
+      </c>
+      <c r="AF10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>1.6</v>
+      </c>
+      <c r="AH10">
+        <v>1.28</v>
+      </c>
+      <c r="AI10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ10">
         <v>1.5</v>
       </c>
-      <c r="V10">
-        <v>2.5</v>
-      </c>
-      <c r="W10">
-        <v>1.28</v>
-      </c>
-      <c r="X10">
-        <v>1.24</v>
-      </c>
-      <c r="Y10">
-        <v>1.83</v>
-      </c>
-      <c r="Z10">
-        <v>1.72</v>
-      </c>
-      <c r="AA10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB10">
-        <v>1.48</v>
-      </c>
-      <c r="AC10">
-        <v>1.25</v>
-      </c>
-      <c r="AD10">
-        <v>2.73</v>
-      </c>
-      <c r="AE10">
-        <v>1.6</v>
-      </c>
-      <c r="AF10">
-        <v>9.5</v>
-      </c>
-      <c r="AG10">
-        <v>2.74</v>
-      </c>
-      <c r="AH10">
-        <v>1.21</v>
-      </c>
-      <c r="AI10">
-        <v>3.74</v>
-      </c>
-      <c r="AJ10">
-        <v>1.29</v>
-      </c>
       <c r="AK10">
-        <v>3.14</v>
+        <v>2.51</v>
       </c>
       <c r="AL10">
-        <v>1.52</v>
+        <v>2.2</v>
       </c>
       <c r="AM10">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="AN10">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="AO10">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="AP10">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="AQ10">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2059,118 +2065,118 @@
         <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="I11">
         <v>3.75</v>
       </c>
       <c r="J11">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="K11">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1.15</v>
+      </c>
+      <c r="R11">
+        <v>4.5</v>
+      </c>
+      <c r="S11">
+        <v>1.57</v>
+      </c>
+      <c r="T11">
+        <v>2.25</v>
+      </c>
+      <c r="U11">
+        <v>1.5</v>
+      </c>
+      <c r="V11">
+        <v>2.5</v>
+      </c>
+      <c r="W11">
+        <v>1.28</v>
+      </c>
+      <c r="X11">
+        <v>1.24</v>
+      </c>
+      <c r="Y11">
+        <v>1.83</v>
+      </c>
+      <c r="Z11">
+        <v>1.72</v>
+      </c>
+      <c r="AA11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>1.48</v>
+      </c>
+      <c r="AC11">
+        <v>1.25</v>
+      </c>
+      <c r="AD11">
+        <v>2.73</v>
+      </c>
+      <c r="AE11">
+        <v>1.6</v>
+      </c>
+      <c r="AF11">
         <v>9.5</v>
       </c>
-      <c r="Q11">
-        <v>1.28</v>
-      </c>
-      <c r="R11">
-        <v>3.65</v>
-      </c>
-      <c r="S11">
-        <v>1.78</v>
-      </c>
-      <c r="T11">
-        <v>1.95</v>
-      </c>
-      <c r="U11">
-        <v>1.67</v>
-      </c>
-      <c r="V11">
-        <v>2.1</v>
-      </c>
-      <c r="W11">
-        <v>1.3</v>
-      </c>
-      <c r="X11">
-        <v>1.25</v>
-      </c>
-      <c r="Y11">
-        <v>1.73</v>
-      </c>
-      <c r="Z11">
-        <v>1.67</v>
-      </c>
-      <c r="AA11">
-        <v>1.44</v>
-      </c>
-      <c r="AB11">
+      <c r="AG11">
+        <v>2.74</v>
+      </c>
+      <c r="AH11">
+        <v>1.21</v>
+      </c>
+      <c r="AI11">
+        <v>3.74</v>
+      </c>
+      <c r="AJ11">
         <v>1.29</v>
       </c>
-      <c r="AC11">
-        <v>1.14</v>
-      </c>
-      <c r="AD11">
-        <v>2.43</v>
-      </c>
-      <c r="AE11">
-        <v>1.68</v>
-      </c>
-      <c r="AF11">
-        <v>9.4</v>
-      </c>
-      <c r="AG11">
-        <v>2.54</v>
-      </c>
-      <c r="AH11">
-        <v>1.13</v>
-      </c>
-      <c r="AI11">
-        <v>4.85</v>
-      </c>
-      <c r="AJ11">
-        <v>1.27</v>
-      </c>
       <c r="AK11">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AL11">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AM11">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="AN11">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AO11">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AP11">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2190,31 +2196,31 @@
         <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="H12">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I12">
+        <v>3.75</v>
+      </c>
+      <c r="J12">
+        <v>2.05</v>
+      </c>
+      <c r="K12">
+        <v>3.3</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>1.36</v>
+      </c>
+      <c r="N12">
         <v>3</v>
-      </c>
-      <c r="J12">
-        <v>2.8</v>
-      </c>
-      <c r="K12">
-        <v>3.25</v>
-      </c>
-      <c r="L12">
-        <v>2.32</v>
-      </c>
-      <c r="M12">
-        <v>1.33</v>
-      </c>
-      <c r="N12">
-        <v>3.25</v>
       </c>
       <c r="O12">
         <v>1.05</v>
@@ -2223,85 +2229,85 @@
         <v>9.5</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R12">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="S12">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U12">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V12">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W12">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="X12">
         <v>1.25</v>
       </c>
       <c r="Y12">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="Z12">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AA12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AB12">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AC12">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="AD12">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="AE12">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="AF12">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="AG12">
-        <v>2.03</v>
+        <v>2.54</v>
       </c>
       <c r="AH12">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AI12">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="AJ12">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AK12">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AL12">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AM12">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AN12">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AO12">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AP12">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="AQ12">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2321,118 +2327,118 @@
         <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H13">
         <v>2.25</v>
       </c>
       <c r="I13">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="K13">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L13">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="M13">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O13">
         <v>1.05</v>
       </c>
       <c r="P13">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q13">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R13">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="S13">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U13">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W13">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="X13">
         <v>1.25</v>
       </c>
       <c r="Y13">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="Z13">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="AA13">
-        <v>0.5600000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AB13">
+        <v>1.36</v>
+      </c>
+      <c r="AC13">
+        <v>1.37</v>
+      </c>
+      <c r="AD13">
+        <v>2.73</v>
+      </c>
+      <c r="AE13">
+        <v>1.99</v>
+      </c>
+      <c r="AF13">
+        <v>9.1</v>
+      </c>
+      <c r="AG13">
+        <v>2.03</v>
+      </c>
+      <c r="AH13">
+        <v>1.14</v>
+      </c>
+      <c r="AI13">
+        <v>4.65</v>
+      </c>
+      <c r="AJ13">
         <v>1.29</v>
       </c>
-      <c r="AC13">
-        <v>1.27</v>
-      </c>
-      <c r="AD13">
-        <v>2.56</v>
-      </c>
-      <c r="AE13">
-        <v>1.65</v>
-      </c>
-      <c r="AF13">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG13">
-        <v>2.62</v>
-      </c>
-      <c r="AH13">
-        <v>1.2</v>
-      </c>
-      <c r="AI13">
-        <v>4</v>
-      </c>
-      <c r="AJ13">
-        <v>1.28</v>
-      </c>
       <c r="AK13">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AL13">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AM13">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AN13">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AO13">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AP13">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AQ13">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2452,25 +2458,25 @@
         <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I14">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="J14">
-        <v>1.66</v>
+        <v>2.15</v>
       </c>
       <c r="K14">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="L14">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -2479,91 +2485,91 @@
         <v>2.75</v>
       </c>
       <c r="O14">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P14">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q14">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="R14">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="U14">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W14">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="X14">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y14">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="Z14">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AA14">
-        <v>0.82</v>
+        <v>1.44</v>
       </c>
       <c r="AB14">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AC14">
+        <v>1.34</v>
+      </c>
+      <c r="AD14">
+        <v>2.83</v>
+      </c>
+      <c r="AE14">
+        <v>1.71</v>
+      </c>
+      <c r="AF14">
+        <v>9</v>
+      </c>
+      <c r="AG14">
+        <v>2.5</v>
+      </c>
+      <c r="AH14">
         <v>1.19</v>
       </c>
-      <c r="AD14">
-        <v>2.62</v>
-      </c>
-      <c r="AE14">
-        <v>1.47</v>
-      </c>
-      <c r="AF14">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AG14">
-        <v>3.2</v>
-      </c>
-      <c r="AH14">
-        <v>1.16</v>
-      </c>
       <c r="AI14">
-        <v>4.4</v>
+        <v>3.96</v>
       </c>
       <c r="AJ14">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="AK14">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
       <c r="AL14">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AM14">
-        <v>2.23</v>
+        <v>2.06</v>
       </c>
       <c r="AN14">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AO14">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AP14">
-        <v>2.54</v>
+        <v>2.78</v>
       </c>
       <c r="AQ14">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2583,25 +2589,25 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I15">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="J15">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="K15">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>3.15</v>
+        <v>4.75</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2610,91 +2616,91 @@
         <v>2.75</v>
       </c>
       <c r="O15">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="Q15">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="R15">
+        <v>3.28</v>
+      </c>
+      <c r="S15">
+        <v>1.91</v>
+      </c>
+      <c r="T15">
+        <v>1.8</v>
+      </c>
+      <c r="U15">
+        <v>1.83</v>
+      </c>
+      <c r="V15">
+        <v>1.83</v>
+      </c>
+      <c r="W15">
+        <v>1.16</v>
+      </c>
+      <c r="X15">
+        <v>1.25</v>
+      </c>
+      <c r="Y15">
+        <v>2.12</v>
+      </c>
+      <c r="Z15">
+        <v>1.53</v>
+      </c>
+      <c r="AA15">
+        <v>0.82</v>
+      </c>
+      <c r="AB15">
+        <v>1.43</v>
+      </c>
+      <c r="AC15">
+        <v>1.19</v>
+      </c>
+      <c r="AD15">
+        <v>2.62</v>
+      </c>
+      <c r="AE15">
+        <v>1.47</v>
+      </c>
+      <c r="AF15">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG15">
         <v>3.2</v>
       </c>
-      <c r="S15">
-        <v>2.08</v>
-      </c>
-      <c r="T15">
-        <v>1.68</v>
-      </c>
-      <c r="U15">
-        <v>1.8</v>
-      </c>
-      <c r="V15">
-        <v>1.91</v>
-      </c>
-      <c r="W15">
-        <v>1.38</v>
-      </c>
-      <c r="X15">
-        <v>1.28</v>
-      </c>
-      <c r="Y15">
-        <v>1.57</v>
-      </c>
-      <c r="Z15">
-        <v>1.94</v>
-      </c>
-      <c r="AA15">
-        <v>1.44</v>
-      </c>
-      <c r="AB15">
-        <v>1.49</v>
-      </c>
-      <c r="AC15">
-        <v>1.34</v>
-      </c>
-      <c r="AD15">
-        <v>2.83</v>
-      </c>
-      <c r="AE15">
-        <v>1.71</v>
-      </c>
-      <c r="AF15">
-        <v>9</v>
-      </c>
-      <c r="AG15">
-        <v>2.5</v>
-      </c>
       <c r="AH15">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AI15">
-        <v>3.96</v>
+        <v>4.4</v>
       </c>
       <c r="AJ15">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AK15">
-        <v>2.71</v>
+        <v>2.98</v>
       </c>
       <c r="AL15">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AM15">
-        <v>2.06</v>
+        <v>2.23</v>
       </c>
       <c r="AN15">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AO15">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AP15">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="AQ15">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2714,118 +2720,118 @@
         <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16">
+        <v>3.1</v>
+      </c>
+      <c r="H16">
+        <v>2.4</v>
+      </c>
+      <c r="I16">
         <v>2.88</v>
       </c>
-      <c r="H16">
-        <v>2.2</v>
-      </c>
-      <c r="I16">
+      <c r="J16">
+        <v>2.6</v>
+      </c>
+      <c r="K16">
         <v>3.5</v>
       </c>
-      <c r="J16">
-        <v>2.23</v>
-      </c>
-      <c r="K16">
-        <v>3.35</v>
-      </c>
       <c r="L16">
-        <v>2.85</v>
+        <v>2.38</v>
       </c>
       <c r="M16">
+        <v>1.29</v>
+      </c>
+      <c r="N16">
+        <v>3.5</v>
+      </c>
+      <c r="O16">
+        <v>1.04</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>1.18</v>
+      </c>
+      <c r="R16">
+        <v>4.75</v>
+      </c>
+      <c r="S16">
+        <v>1.45</v>
+      </c>
+      <c r="T16">
+        <v>2.55</v>
+      </c>
+      <c r="U16">
+        <v>1.44</v>
+      </c>
+      <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.55</v>
+      </c>
+      <c r="X16">
+        <v>1.22</v>
+      </c>
+      <c r="Y16">
+        <v>1.45</v>
+      </c>
+      <c r="Z16">
+        <v>1.65</v>
+      </c>
+      <c r="AA16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB16">
+        <v>1.46</v>
+      </c>
+      <c r="AC16">
         <v>1.36</v>
       </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>1.05</v>
-      </c>
-      <c r="P16">
-        <v>9.5</v>
-      </c>
-      <c r="Q16">
-        <v>1.25</v>
-      </c>
-      <c r="R16">
-        <v>3.85</v>
-      </c>
-      <c r="S16">
-        <v>1.79</v>
-      </c>
-      <c r="T16">
-        <v>1.94</v>
-      </c>
-      <c r="U16">
+      <c r="AD16">
+        <v>2.82</v>
+      </c>
+      <c r="AE16">
+        <v>2.04</v>
+      </c>
+      <c r="AF16">
+        <v>8.9</v>
+      </c>
+      <c r="AG16">
+        <v>1.99</v>
+      </c>
+      <c r="AH16">
+        <v>1.17</v>
+      </c>
+      <c r="AI16">
+        <v>4.15</v>
+      </c>
+      <c r="AJ16">
+        <v>1.35</v>
+      </c>
+      <c r="AK16">
+        <v>2.84</v>
+      </c>
+      <c r="AL16">
+        <v>1.64</v>
+      </c>
+      <c r="AM16">
+        <v>2.12</v>
+      </c>
+      <c r="AN16">
+        <v>2.03</v>
+      </c>
+      <c r="AO16">
         <v>1.67</v>
       </c>
-      <c r="V16">
-        <v>2.1</v>
-      </c>
-      <c r="W16">
-        <v>1.36</v>
-      </c>
-      <c r="X16">
-        <v>1.25</v>
-      </c>
-      <c r="Y16">
-        <v>1.65</v>
-      </c>
-      <c r="Z16">
-        <v>1.06</v>
-      </c>
-      <c r="AA16">
-        <v>0.78</v>
-      </c>
-      <c r="AB16">
-        <v>1.47</v>
-      </c>
-      <c r="AC16">
-        <v>1.18</v>
-      </c>
-      <c r="AD16">
-        <v>2.65</v>
-      </c>
-      <c r="AE16">
-        <v>1.71</v>
-      </c>
-      <c r="AF16">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG16">
-        <v>2.48</v>
-      </c>
-      <c r="AH16">
-        <v>1.2</v>
-      </c>
-      <c r="AI16">
-        <v>4</v>
-      </c>
-      <c r="AJ16">
-        <v>1.3</v>
-      </c>
-      <c r="AK16">
-        <v>3.08</v>
-      </c>
-      <c r="AL16">
-        <v>1.53</v>
-      </c>
-      <c r="AM16">
-        <v>2.28</v>
-      </c>
-      <c r="AN16">
-        <v>1.92</v>
-      </c>
-      <c r="AO16">
-        <v>1.79</v>
-      </c>
       <c r="AP16">
-        <v>2.45</v>
+        <v>2.64</v>
       </c>
       <c r="AQ16">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2845,49 +2851,49 @@
         <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="H17">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I17">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17">
-        <v>3.9</v>
+        <v>2.13</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="L17">
-        <v>1.85</v>
+        <v>2.78</v>
       </c>
       <c r="M17">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N17">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P17">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q17">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R17">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="S17">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T17">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U17">
         <v>1.67</v>
@@ -2896,67 +2902,67 @@
         <v>2.1</v>
       </c>
       <c r="W17">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="X17">
         <v>1.25</v>
       </c>
       <c r="Y17">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="Z17">
-        <v>1.78</v>
+        <v>1.06</v>
       </c>
       <c r="AA17">
-        <v>1.83</v>
+        <v>0.78</v>
       </c>
       <c r="AB17">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AC17">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="AD17">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="AE17">
-        <v>2.51</v>
+        <v>1.71</v>
       </c>
       <c r="AF17">
-        <v>9.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG17">
-        <v>1.69</v>
+        <v>2.48</v>
       </c>
       <c r="AH17">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AI17">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AJ17">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AK17">
-        <v>3.65</v>
+        <v>3.08</v>
       </c>
       <c r="AL17">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AM17">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="AN17">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AO17">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="AP17">
-        <v>2.12</v>
+        <v>2.45</v>
       </c>
       <c r="AQ17">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2976,123 +2982,123 @@
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="H18">
+        <v>2.3</v>
+      </c>
+      <c r="I18">
         <v>2.4</v>
       </c>
-      <c r="I18">
-        <v>2.88</v>
-      </c>
       <c r="J18">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L18">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="M18">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O18">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P18">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Q18">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R18">
+        <v>3.65</v>
+      </c>
+      <c r="S18">
+        <v>1.73</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>1.67</v>
+      </c>
+      <c r="V18">
+        <v>2.1</v>
+      </c>
+      <c r="W18">
+        <v>1.93</v>
+      </c>
+      <c r="X18">
+        <v>1.25</v>
+      </c>
+      <c r="Y18">
+        <v>1.23</v>
+      </c>
+      <c r="Z18">
+        <v>1.78</v>
+      </c>
+      <c r="AA18">
+        <v>1.83</v>
+      </c>
+      <c r="AB18">
+        <v>1.45</v>
+      </c>
+      <c r="AC18">
+        <v>1.59</v>
+      </c>
+      <c r="AD18">
+        <v>3.04</v>
+      </c>
+      <c r="AE18">
+        <v>2.51</v>
+      </c>
+      <c r="AF18">
+        <v>9.6</v>
+      </c>
+      <c r="AG18">
+        <v>1.69</v>
+      </c>
+      <c r="AH18">
+        <v>1.15</v>
+      </c>
+      <c r="AI18">
         <v>4.75</v>
       </c>
-      <c r="S18">
-        <v>1.45</v>
-      </c>
-      <c r="T18">
-        <v>2.56</v>
-      </c>
-      <c r="U18">
-        <v>1.44</v>
-      </c>
-      <c r="V18">
-        <v>2.63</v>
-      </c>
-      <c r="W18">
-        <v>1.55</v>
-      </c>
-      <c r="X18">
+      <c r="AJ18">
         <v>1.22</v>
       </c>
-      <c r="Y18">
-        <v>1.45</v>
-      </c>
-      <c r="Z18">
-        <v>1.65</v>
-      </c>
-      <c r="AA18">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB18">
-        <v>1.46</v>
-      </c>
-      <c r="AC18">
-        <v>1.36</v>
-      </c>
-      <c r="AD18">
-        <v>2.82</v>
-      </c>
-      <c r="AE18">
-        <v>2.04</v>
-      </c>
-      <c r="AF18">
-        <v>8.9</v>
-      </c>
-      <c r="AG18">
-        <v>1.99</v>
-      </c>
-      <c r="AH18">
-        <v>1.17</v>
-      </c>
-      <c r="AI18">
-        <v>4.15</v>
-      </c>
-      <c r="AJ18">
-        <v>1.35</v>
-      </c>
       <c r="AK18">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="AL18">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="AM18">
+        <v>2.6</v>
+      </c>
+      <c r="AN18">
+        <v>1.71</v>
+      </c>
+      <c r="AO18">
+        <v>2.02</v>
+      </c>
+      <c r="AP18">
         <v>2.12</v>
       </c>
-      <c r="AN18">
-        <v>2.03</v>
-      </c>
-      <c r="AO18">
-        <v>1.67</v>
-      </c>
-      <c r="AP18">
-        <v>2.64</v>
-      </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
         <v>45363</v>
@@ -3107,25 +3113,25 @@
         <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="H19">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
-        <v>1.27</v>
+        <v>1.78</v>
       </c>
       <c r="K19">
-        <v>4.55</v>
+        <v>3.6</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <v>1.36</v>
@@ -3137,88 +3143,88 @@
         <v>1.05</v>
       </c>
       <c r="P19">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Q19">
+        <v>1.22</v>
+      </c>
+      <c r="R19">
+        <v>3.65</v>
+      </c>
+      <c r="S19">
+        <v>1.75</v>
+      </c>
+      <c r="T19">
+        <v>1.95</v>
+      </c>
+      <c r="U19">
+        <v>1.73</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>1.22</v>
+      </c>
+      <c r="X19">
         <v>1.25</v>
       </c>
-      <c r="R19">
-        <v>3.75</v>
-      </c>
-      <c r="S19">
-        <v>1.67</v>
-      </c>
-      <c r="T19">
-        <v>2.07</v>
-      </c>
-      <c r="U19">
-        <v>2.05</v>
-      </c>
-      <c r="V19">
-        <v>1.7</v>
-      </c>
-      <c r="W19">
-        <v>1.08</v>
-      </c>
-      <c r="X19">
-        <v>1.21</v>
-      </c>
       <c r="Y19">
-        <v>2.82</v>
+        <v>1.94</v>
       </c>
       <c r="Z19">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="AA19">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB19">
-        <v>1.55</v>
+        <v>1.29</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="AD19">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AE19">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AF19">
-        <v>11.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG19">
-        <v>5.53</v>
+        <v>2.62</v>
       </c>
       <c r="AH19">
         <v>1.2</v>
       </c>
       <c r="AI19">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="AJ19">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AK19">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="AL19">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AM19">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="AN19">
-        <v>2.16</v>
+        <v>1.86</v>
       </c>
       <c r="AO19">
-        <v>1.62</v>
+        <v>1.84</v>
       </c>
       <c r="AP19">
-        <v>2.79</v>
+        <v>2.38</v>
       </c>
       <c r="AQ19">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3238,118 +3244,118 @@
         <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H20">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1.7</v>
+      </c>
+      <c r="K20">
         <v>3.4</v>
       </c>
-      <c r="J20">
+      <c r="L20">
+        <v>4.75</v>
+      </c>
+      <c r="M20">
+        <v>1.5</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <v>1.07</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>1.42</v>
+      </c>
+      <c r="R20">
+        <v>2.85</v>
+      </c>
+      <c r="S20">
         <v>2.25</v>
       </c>
-      <c r="K20">
-        <v>3.15</v>
-      </c>
-      <c r="L20">
-        <v>2.7</v>
-      </c>
-      <c r="M20">
-        <v>1.36</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>1.05</v>
-      </c>
-      <c r="P20">
-        <v>9.5</v>
-      </c>
-      <c r="Q20">
+      <c r="T20">
+        <v>1.57</v>
+      </c>
+      <c r="U20">
+        <v>2.05</v>
+      </c>
+      <c r="V20">
+        <v>1.7</v>
+      </c>
+      <c r="W20">
+        <v>1.2</v>
+      </c>
+      <c r="X20">
+        <v>1.25</v>
+      </c>
+      <c r="Y20">
+        <v>1.95</v>
+      </c>
+      <c r="Z20">
+        <v>1.56</v>
+      </c>
+      <c r="AA20">
+        <v>0.76</v>
+      </c>
+      <c r="AB20">
+        <v>1.3</v>
+      </c>
+      <c r="AC20">
+        <v>1.07</v>
+      </c>
+      <c r="AD20">
+        <v>2.37</v>
+      </c>
+      <c r="AE20">
+        <v>1.5</v>
+      </c>
+      <c r="AF20">
+        <v>9.4</v>
+      </c>
+      <c r="AG20">
+        <v>3.2</v>
+      </c>
+      <c r="AH20">
+        <v>1.25</v>
+      </c>
+      <c r="AI20">
+        <v>3.42</v>
+      </c>
+      <c r="AJ20">
+        <v>1.49</v>
+      </c>
+      <c r="AK20">
+        <v>2.44</v>
+      </c>
+      <c r="AL20">
+        <v>1.86</v>
+      </c>
+      <c r="AM20">
+        <v>1.88</v>
+      </c>
+      <c r="AN20">
+        <v>2.39</v>
+      </c>
+      <c r="AO20">
+        <v>1.51</v>
+      </c>
+      <c r="AP20">
+        <v>3.2</v>
+      </c>
+      <c r="AQ20">
         <v>1.28</v>
-      </c>
-      <c r="R20">
-        <v>3.65</v>
-      </c>
-      <c r="S20">
-        <v>1.82</v>
-      </c>
-      <c r="T20">
-        <v>1.88</v>
-      </c>
-      <c r="U20">
-        <v>1.7</v>
-      </c>
-      <c r="V20">
-        <v>2.05</v>
-      </c>
-      <c r="W20">
-        <v>1.42</v>
-      </c>
-      <c r="X20">
-        <v>1.3</v>
-      </c>
-      <c r="Y20">
-        <v>1.58</v>
-      </c>
-      <c r="Z20">
-        <v>0.83</v>
-      </c>
-      <c r="AA20">
-        <v>1.28</v>
-      </c>
-      <c r="AB20">
-        <v>1.33</v>
-      </c>
-      <c r="AC20">
-        <v>1.33</v>
-      </c>
-      <c r="AD20">
-        <v>2.66</v>
-      </c>
-      <c r="AE20">
-        <v>1.88</v>
-      </c>
-      <c r="AF20">
-        <v>9.5</v>
-      </c>
-      <c r="AG20">
-        <v>2.19</v>
-      </c>
-      <c r="AH20">
-        <v>1.14</v>
-      </c>
-      <c r="AI20">
-        <v>4.9</v>
-      </c>
-      <c r="AJ20">
-        <v>1.23</v>
-      </c>
-      <c r="AK20">
-        <v>3.56</v>
-      </c>
-      <c r="AL20">
-        <v>1.44</v>
-      </c>
-      <c r="AM20">
-        <v>2.58</v>
-      </c>
-      <c r="AN20">
-        <v>1.76</v>
-      </c>
-      <c r="AO20">
-        <v>2</v>
-      </c>
-      <c r="AP20">
-        <v>2.19</v>
-      </c>
-      <c r="AQ20">
-        <v>1.6</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3369,25 +3375,25 @@
         <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I21">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="J21">
-        <v>4.4</v>
+        <v>2.15</v>
       </c>
       <c r="K21">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="L21">
-        <v>1.58</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
         <v>1.36</v>
@@ -3402,85 +3408,85 @@
         <v>9.5</v>
       </c>
       <c r="Q21">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R21">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="S21">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T21">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V21">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W21">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="X21">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y21">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Z21">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="AA21">
-        <v>2.12</v>
+        <v>1.28</v>
       </c>
       <c r="AB21">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AC21">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AD21">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AE21">
-        <v>2.57</v>
+        <v>1.88</v>
       </c>
       <c r="AF21">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AG21">
-        <v>1.7</v>
+        <v>2.19</v>
       </c>
       <c r="AH21">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AI21">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AJ21">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AK21">
-        <v>2.89</v>
+        <v>3.56</v>
       </c>
       <c r="AL21">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AM21">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="AN21">
-        <v>2.03</v>
+        <v>1.76</v>
       </c>
       <c r="AO21">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3500,31 +3506,31 @@
         <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22">
-        <v>2.1</v>
+        <v>4.33</v>
       </c>
       <c r="H22">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I22">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J22">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="K22">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L22">
-        <v>4.65</v>
+        <v>1.65</v>
       </c>
       <c r="M22">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N22">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>1.05</v>
@@ -3539,84 +3545,84 @@
         <v>3.85</v>
       </c>
       <c r="S22">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W22">
-        <v>1.19</v>
+        <v>1.85</v>
       </c>
       <c r="X22">
         <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="Z22">
-        <v>1.89</v>
+        <v>0.78</v>
       </c>
       <c r="AA22">
-        <v>0.78</v>
+        <v>2.12</v>
       </c>
       <c r="AB22">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AC22">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AD22">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AE22">
-        <v>1.42</v>
+        <v>2.57</v>
       </c>
       <c r="AF22">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG22">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="AH22">
         <v>1.17</v>
       </c>
       <c r="AI22">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AJ22">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AK22">
-        <v>3.18</v>
+        <v>2.89</v>
       </c>
       <c r="AL22">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="AM22">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="AN22">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="AO22">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AP22">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="AQ22">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2">
         <v>45363</v>
@@ -3631,123 +3637,123 @@
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H23">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J23">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="L23">
+        <v>4.75</v>
+      </c>
+      <c r="M23">
+        <v>1.33</v>
+      </c>
+      <c r="N23">
         <v>3.25</v>
       </c>
-      <c r="M23">
-        <v>1.44</v>
-      </c>
-      <c r="N23">
-        <v>2.63</v>
-      </c>
       <c r="O23">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P23">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q23">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="R23">
-        <v>2.79</v>
+        <v>3.85</v>
       </c>
       <c r="S23">
-        <v>2.23</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="U23">
+        <v>1.8</v>
+      </c>
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>1.19</v>
+      </c>
+      <c r="X23">
+        <v>1.25</v>
+      </c>
+      <c r="Y23">
+        <v>2.22</v>
+      </c>
+      <c r="Z23">
+        <v>1.89</v>
+      </c>
+      <c r="AA23">
+        <v>0.78</v>
+      </c>
+      <c r="AB23">
+        <v>1.46</v>
+      </c>
+      <c r="AC23">
+        <v>1.22</v>
+      </c>
+      <c r="AD23">
+        <v>2.68</v>
+      </c>
+      <c r="AE23">
+        <v>1.42</v>
+      </c>
+      <c r="AF23">
+        <v>10.5</v>
+      </c>
+      <c r="AG23">
+        <v>3.5</v>
+      </c>
+      <c r="AH23">
+        <v>1.17</v>
+      </c>
+      <c r="AI23">
+        <v>4.5</v>
+      </c>
+      <c r="AJ23">
+        <v>1.28</v>
+      </c>
+      <c r="AK23">
+        <v>3.18</v>
+      </c>
+      <c r="AL23">
+        <v>1.53</v>
+      </c>
+      <c r="AM23">
+        <v>2.34</v>
+      </c>
+      <c r="AN23">
         <v>1.91</v>
       </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
-      <c r="W23">
-        <v>1.31</v>
-      </c>
-      <c r="X23">
-        <v>1.31</v>
-      </c>
-      <c r="Y23">
-        <v>1.64</v>
-      </c>
-      <c r="Z23">
-        <v>1.61</v>
-      </c>
-      <c r="AA23">
-        <v>1.39</v>
-      </c>
-      <c r="AB23">
-        <v>1.6</v>
-      </c>
-      <c r="AC23">
-        <v>1.24</v>
-      </c>
-      <c r="AD23">
-        <v>2.84</v>
-      </c>
-      <c r="AE23">
-        <v>1.76</v>
-      </c>
-      <c r="AF23">
-        <v>9</v>
-      </c>
-      <c r="AG23">
-        <v>2.4</v>
-      </c>
-      <c r="AH23">
-        <v>1.18</v>
-      </c>
-      <c r="AI23">
-        <v>4.1</v>
-      </c>
-      <c r="AJ23">
-        <v>1.36</v>
-      </c>
-      <c r="AK23">
-        <v>2.79</v>
-      </c>
-      <c r="AL23">
-        <v>1.65</v>
-      </c>
-      <c r="AM23">
-        <v>2.11</v>
-      </c>
-      <c r="AN23">
-        <v>2.05</v>
-      </c>
       <c r="AO23">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AP23">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="AQ23">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>45363</v>
@@ -3762,118 +3768,118 @@
         <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>2.05</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2.15</v>
+      </c>
+      <c r="K24">
+        <v>3.2</v>
+      </c>
+      <c r="L24">
+        <v>3.2</v>
+      </c>
+      <c r="M24">
+        <v>1.44</v>
+      </c>
+      <c r="N24">
+        <v>2.63</v>
+      </c>
+      <c r="O24">
+        <v>1.04</v>
+      </c>
+      <c r="P24">
+        <v>7.6</v>
+      </c>
+      <c r="Q24">
+        <v>1.36</v>
+      </c>
+      <c r="R24">
+        <v>2.79</v>
+      </c>
+      <c r="S24">
         <v>2.2</v>
       </c>
-      <c r="H24">
-        <v>2.25</v>
-      </c>
-      <c r="I24">
-        <v>5.5</v>
-      </c>
-      <c r="J24">
-        <v>1.47</v>
-      </c>
-      <c r="K24">
-        <v>3.65</v>
-      </c>
-      <c r="L24">
-        <v>5.6</v>
-      </c>
-      <c r="M24">
-        <v>1.36</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>1.02</v>
-      </c>
-      <c r="P24">
-        <v>8.6</v>
-      </c>
-      <c r="Q24">
-        <v>1.3</v>
-      </c>
-      <c r="R24">
-        <v>3.1</v>
-      </c>
-      <c r="S24">
-        <v>1.89</v>
-      </c>
       <c r="T24">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V24">
         <v>1.8</v>
       </c>
       <c r="W24">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="X24">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="Y24">
-        <v>2.26</v>
+        <v>1.64</v>
       </c>
       <c r="Z24">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AA24">
-        <v>0.82</v>
+        <v>1.39</v>
       </c>
       <c r="AB24">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AC24">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="AD24">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="AE24">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="AF24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG24">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AH24">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AI24">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AJ24">
         <v>1.36</v>
       </c>
       <c r="AK24">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AL24">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AM24">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="AN24">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AO24">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AP24">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AQ24">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3893,118 +3899,118 @@
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G25">
+        <v>2.2</v>
+      </c>
+      <c r="H25">
+        <v>2.25</v>
+      </c>
+      <c r="I25">
+        <v>5.5</v>
+      </c>
+      <c r="J25">
+        <v>1.55</v>
+      </c>
+      <c r="K25">
+        <v>3.8</v>
+      </c>
+      <c r="L25">
+        <v>5.5</v>
+      </c>
+      <c r="M25">
+        <v>1.36</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1.02</v>
+      </c>
+      <c r="P25">
+        <v>8.6</v>
+      </c>
+      <c r="Q25">
+        <v>1.3</v>
+      </c>
+      <c r="R25">
+        <v>3.1</v>
+      </c>
+      <c r="S25">
+        <v>1.95</v>
+      </c>
+      <c r="T25">
+        <v>1.75</v>
+      </c>
+      <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
+        <v>1.8</v>
+      </c>
+      <c r="W25">
+        <v>1.15</v>
+      </c>
+      <c r="X25">
+        <v>1.26</v>
+      </c>
+      <c r="Y25">
+        <v>2.26</v>
+      </c>
+      <c r="Z25">
+        <v>1.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.82</v>
+      </c>
+      <c r="AB25">
+        <v>1.39</v>
+      </c>
+      <c r="AC25">
+        <v>1.11</v>
+      </c>
+      <c r="AD25">
         <v>2.5</v>
       </c>
-      <c r="H25">
-        <v>2.05</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>1.61</v>
-      </c>
-      <c r="K25">
-        <v>3.25</v>
-      </c>
-      <c r="L25">
-        <v>4.9</v>
-      </c>
-      <c r="M25">
-        <v>1.5</v>
-      </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>1.07</v>
-      </c>
-      <c r="P25">
-        <v>8</v>
-      </c>
-      <c r="Q25">
-        <v>1.42</v>
-      </c>
-      <c r="R25">
-        <v>2.85</v>
-      </c>
-      <c r="S25">
-        <v>2.13</v>
-      </c>
-      <c r="T25">
-        <v>1.63</v>
-      </c>
-      <c r="U25">
-        <v>2.05</v>
-      </c>
-      <c r="V25">
-        <v>1.7</v>
-      </c>
-      <c r="W25">
+      <c r="AE25">
+        <v>1.43</v>
+      </c>
+      <c r="AF25">
+        <v>10</v>
+      </c>
+      <c r="AG25">
+        <v>3.5</v>
+      </c>
+      <c r="AH25">
         <v>1.2</v>
       </c>
-      <c r="X25">
-        <v>1.25</v>
-      </c>
-      <c r="Y25">
-        <v>1.95</v>
-      </c>
-      <c r="Z25">
-        <v>1.56</v>
-      </c>
-      <c r="AA25">
-        <v>0.76</v>
-      </c>
-      <c r="AB25">
-        <v>1.3</v>
-      </c>
-      <c r="AC25">
-        <v>1.07</v>
-      </c>
-      <c r="AD25">
-        <v>2.37</v>
-      </c>
-      <c r="AE25">
-        <v>1.5</v>
-      </c>
-      <c r="AF25">
-        <v>9.4</v>
-      </c>
-      <c r="AG25">
-        <v>3.2</v>
-      </c>
-      <c r="AH25">
-        <v>1.25</v>
-      </c>
       <c r="AI25">
-        <v>3.42</v>
+        <v>4</v>
       </c>
       <c r="AJ25">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AK25">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="AL25">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AM25">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="AN25">
-        <v>2.39</v>
+        <v>2.11</v>
       </c>
       <c r="AO25">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AP25">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="AQ25">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="26" spans="1:43">
@@ -4024,7 +4030,7 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26">
         <v>4.33</v>
@@ -4036,13 +4042,13 @@
         <v>2.5</v>
       </c>
       <c r="J26">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K26">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="M26">
         <v>1.36</v>
@@ -4063,7 +4069,7 @@
         <v>3.75</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T26">
         <v>1.8</v>
@@ -4155,123 +4161,123 @@
         <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G27">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27">
-        <v>2.28</v>
+        <v>1.38</v>
       </c>
       <c r="K27">
+        <v>4.33</v>
+      </c>
+      <c r="L27">
+        <v>7.5</v>
+      </c>
+      <c r="M27">
+        <v>1.36</v>
+      </c>
+      <c r="N27">
         <v>3</v>
       </c>
-      <c r="L27">
-        <v>2.77</v>
-      </c>
-      <c r="M27">
-        <v>1.5</v>
-      </c>
-      <c r="N27">
+      <c r="O27">
+        <v>1.05</v>
+      </c>
+      <c r="P27">
+        <v>9.5</v>
+      </c>
+      <c r="Q27">
+        <v>1.25</v>
+      </c>
+      <c r="R27">
+        <v>3.75</v>
+      </c>
+      <c r="S27">
+        <v>1.8</v>
+      </c>
+      <c r="T27">
+        <v>1.91</v>
+      </c>
+      <c r="U27">
+        <v>2.05</v>
+      </c>
+      <c r="V27">
+        <v>1.7</v>
+      </c>
+      <c r="W27">
+        <v>1.08</v>
+      </c>
+      <c r="X27">
+        <v>1.21</v>
+      </c>
+      <c r="Y27">
+        <v>2.82</v>
+      </c>
+      <c r="Z27">
+        <v>2.22</v>
+      </c>
+      <c r="AA27">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB27">
+        <v>1.55</v>
+      </c>
+      <c r="AC27">
+        <v>0.95</v>
+      </c>
+      <c r="AD27">
         <v>2.5</v>
       </c>
-      <c r="O27">
-        <v>1.09</v>
-      </c>
-      <c r="P27">
-        <v>7</v>
-      </c>
-      <c r="Q27">
-        <v>1.45</v>
-      </c>
-      <c r="R27">
-        <v>2.7</v>
-      </c>
-      <c r="S27">
-        <v>2.07</v>
-      </c>
-      <c r="T27">
-        <v>1.67</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.75</v>
-      </c>
-      <c r="W27">
-        <v>1.33</v>
-      </c>
-      <c r="X27">
-        <v>1.3</v>
-      </c>
-      <c r="Y27">
-        <v>1.6</v>
-      </c>
-      <c r="Z27">
-        <v>1.28</v>
-      </c>
-      <c r="AA27">
-        <v>1.06</v>
-      </c>
-      <c r="AB27">
+      <c r="AE27">
         <v>1.22</v>
       </c>
-      <c r="AC27">
-        <v>1.1</v>
-      </c>
-      <c r="AD27">
-        <v>2.32</v>
-      </c>
-      <c r="AE27">
-        <v>1.85</v>
-      </c>
       <c r="AF27">
-        <v>9.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="AG27">
-        <v>2.25</v>
+        <v>5.53</v>
       </c>
       <c r="AH27">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AI27">
-        <v>4.75</v>
+        <v>3.86</v>
       </c>
       <c r="AJ27">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AK27">
-        <v>3.94</v>
+        <v>2.72</v>
       </c>
       <c r="AL27">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AM27">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="AN27">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="AO27">
-        <v>2.13</v>
+        <v>1.62</v>
       </c>
       <c r="AP27">
-        <v>2.04</v>
+        <v>2.79</v>
       </c>
       <c r="AQ27">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2">
         <v>45363</v>
@@ -4280,124 +4286,124 @@
         <v>55</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28">
         <v>3.1</v>
       </c>
       <c r="H28">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="J28">
+        <v>2.3</v>
+      </c>
+      <c r="K28">
+        <v>3.1</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
+        <v>2.5</v>
+      </c>
+      <c r="O28">
+        <v>1.09</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>1.45</v>
+      </c>
+      <c r="R28">
         <v>2.7</v>
       </c>
-      <c r="K28">
-        <v>3.2</v>
-      </c>
-      <c r="L28">
-        <v>2.22</v>
-      </c>
-      <c r="M28">
-        <v>1.25</v>
-      </c>
-      <c r="N28">
-        <v>3.75</v>
-      </c>
-      <c r="O28">
-        <v>1.02</v>
-      </c>
-      <c r="P28">
-        <v>20.5</v>
-      </c>
-      <c r="Q28">
-        <v>1.13</v>
-      </c>
-      <c r="R28">
-        <v>5.7</v>
-      </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="U28">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="W28">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="X28">
+        <v>1.3</v>
+      </c>
+      <c r="Y28">
+        <v>1.6</v>
+      </c>
+      <c r="Z28">
         <v>1.28</v>
       </c>
-      <c r="Y28">
-        <v>1.43</v>
-      </c>
-      <c r="Z28">
-        <v>1.59</v>
-      </c>
       <c r="AA28">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="AB28">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AC28">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="AD28">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="AE28">
-        <v>2.24</v>
+        <v>1.85</v>
       </c>
       <c r="AF28">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG28">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AH28">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AI28">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AJ28">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AK28">
-        <v>3.08</v>
+        <v>3.94</v>
       </c>
       <c r="AL28">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AM28">
-        <v>2.29</v>
+        <v>2.8</v>
       </c>
       <c r="AN28">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AO28">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
       <c r="AP28">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="AQ28">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="29" spans="1:43">
@@ -4417,7 +4423,7 @@
         <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29">
         <v>2.5</v>
@@ -4429,13 +4435,13 @@
         <v>4.75</v>
       </c>
       <c r="J29">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="K29">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
         <v>1.4</v>
@@ -4456,10 +4462,10 @@
         <v>3.3</v>
       </c>
       <c r="S29">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T29">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U29">
         <v>1.8</v>
@@ -4533,7 +4539,7 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>45363</v>
@@ -4542,31 +4548,31 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G30">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="H30">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="I30">
-        <v>6.5</v>
+        <v>2.85</v>
       </c>
       <c r="J30">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="K30">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="M30">
         <v>1.25</v>
@@ -4575,102 +4581,102 @@
         <v>3.75</v>
       </c>
       <c r="O30">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>20.5</v>
       </c>
       <c r="Q30">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="R30">
-        <v>5.25</v>
+        <v>5.7</v>
       </c>
       <c r="S30">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="V30">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="W30">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="X30">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="Y30">
-        <v>2.95</v>
+        <v>1.43</v>
       </c>
       <c r="Z30">
-        <v>2.41</v>
+        <v>1.59</v>
       </c>
       <c r="AA30">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AB30">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
       <c r="AC30">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="AD30">
-        <v>2.87</v>
+        <v>2.66</v>
       </c>
       <c r="AE30">
-        <v>1.19</v>
+        <v>2.24</v>
       </c>
       <c r="AF30">
-        <v>12.7</v>
+        <v>9.4</v>
       </c>
       <c r="AG30">
-        <v>5.74</v>
+        <v>1.85</v>
       </c>
       <c r="AH30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AI30">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AJ30">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AK30">
-        <v>3.48</v>
+        <v>3.08</v>
       </c>
       <c r="AL30">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AM30">
-        <v>2.51</v>
+        <v>2.29</v>
       </c>
       <c r="AN30">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="AO30">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AP30">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="AQ30">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2">
         <v>45363</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>38</v>
@@ -4679,117 +4685,248 @@
         <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31">
+        <v>1.83</v>
+      </c>
+      <c r="H31">
+        <v>2.6</v>
+      </c>
+      <c r="I31">
+        <v>6.5</v>
+      </c>
+      <c r="J31">
+        <v>1.33</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>1.25</v>
+      </c>
+      <c r="N31">
+        <v>3.75</v>
+      </c>
+      <c r="O31">
+        <v>1.03</v>
+      </c>
+      <c r="P31">
+        <v>11</v>
+      </c>
+      <c r="Q31">
+        <v>1.15</v>
+      </c>
+      <c r="R31">
+        <v>5.25</v>
+      </c>
+      <c r="S31">
+        <v>1.53</v>
+      </c>
+      <c r="T31">
+        <v>2.35</v>
+      </c>
+      <c r="U31">
+        <v>1.8</v>
+      </c>
+      <c r="V31">
+        <v>1.91</v>
+      </c>
+      <c r="W31">
+        <v>1.09</v>
+      </c>
+      <c r="X31">
+        <v>1.12</v>
+      </c>
+      <c r="Y31">
+        <v>2.95</v>
+      </c>
+      <c r="Z31">
+        <v>2.41</v>
+      </c>
+      <c r="AA31">
+        <v>1.61</v>
+      </c>
+      <c r="AB31">
+        <v>1.86</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>2.87</v>
+      </c>
+      <c r="AE31">
+        <v>1.19</v>
+      </c>
+      <c r="AF31">
+        <v>12.7</v>
+      </c>
+      <c r="AG31">
+        <v>5.74</v>
+      </c>
+      <c r="AH31">
+        <v>1.17</v>
+      </c>
+      <c r="AI31">
+        <v>4.5</v>
+      </c>
+      <c r="AJ31">
+        <v>1.24</v>
+      </c>
+      <c r="AK31">
+        <v>3.48</v>
+      </c>
+      <c r="AL31">
+        <v>1.44</v>
+      </c>
+      <c r="AM31">
+        <v>2.51</v>
+      </c>
+      <c r="AN31">
+        <v>1.77</v>
+      </c>
+      <c r="AO31">
+        <v>1.94</v>
+      </c>
+      <c r="AP31">
+        <v>2.19</v>
+      </c>
+      <c r="AQ31">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45363</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32">
         <v>2.38</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>2.25</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>4.5</v>
       </c>
-      <c r="J31">
-        <v>1.69</v>
-      </c>
-      <c r="K31">
-        <v>3.5</v>
-      </c>
-      <c r="L31">
-        <v>3.9</v>
-      </c>
-      <c r="M31">
+      <c r="J32">
+        <v>1.73</v>
+      </c>
+      <c r="K32">
+        <v>3.6</v>
+      </c>
+      <c r="L32">
+        <v>4.33</v>
+      </c>
+      <c r="M32">
         <v>1.33</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>3.25</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <v>1.05</v>
       </c>
-      <c r="P31">
+      <c r="P32">
         <v>9.5</v>
       </c>
-      <c r="Q31">
+      <c r="Q32">
         <v>1.25</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <v>3.85</v>
       </c>
-      <c r="S31">
-        <v>1.73</v>
-      </c>
-      <c r="T31">
-        <v>1.98</v>
-      </c>
-      <c r="U31">
+      <c r="S32">
+        <v>1.8</v>
+      </c>
+      <c r="T32">
+        <v>1.91</v>
+      </c>
+      <c r="U32">
         <v>1.7</v>
       </c>
-      <c r="V31">
+      <c r="V32">
         <v>2.05</v>
       </c>
-      <c r="W31">
+      <c r="W32">
         <v>1.22</v>
       </c>
-      <c r="X31">
+      <c r="X32">
         <v>1.22</v>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <v>2</v>
       </c>
-      <c r="Z31">
+      <c r="Z32">
         <v>2.17</v>
       </c>
-      <c r="AA31">
+      <c r="AA32">
         <v>1.5</v>
       </c>
-      <c r="AB31">
+      <c r="AB32">
         <v>1.47</v>
       </c>
-      <c r="AC31">
+      <c r="AC32">
         <v>1.3</v>
       </c>
-      <c r="AD31">
+      <c r="AD32">
         <v>2.77</v>
       </c>
-      <c r="AE31">
+      <c r="AE32">
         <v>1.4</v>
       </c>
-      <c r="AF31">
+      <c r="AF32">
         <v>9.5</v>
       </c>
-      <c r="AG31">
+      <c r="AG32">
         <v>3.2</v>
       </c>
-      <c r="AH31">
+      <c r="AH32">
         <v>1.2</v>
       </c>
-      <c r="AI31">
+      <c r="AI32">
         <v>4</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ32">
         <v>1.33</v>
       </c>
-      <c r="AK31">
+      <c r="AK32">
         <v>2.93</v>
       </c>
-      <c r="AL31">
+      <c r="AL32">
         <v>1.6</v>
       </c>
-      <c r="AM31">
+      <c r="AM32">
         <v>2.19</v>
       </c>
-      <c r="AN31">
+      <c r="AN32">
         <v>2.01</v>
       </c>
-      <c r="AO31">
+      <c r="AO32">
         <v>1.75</v>
       </c>
-      <c r="AP31">
+      <c r="AP32">
         <v>2.58</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ32">
         <v>1.44</v>
       </c>
     </row>
